--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6927,28 +6927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1611.955327488509</v>
+        <v>1685.128931170577</v>
       </c>
       <c r="AB2" t="n">
-        <v>2205.54839351982</v>
+        <v>2305.667746269186</v>
       </c>
       <c r="AC2" t="n">
-        <v>1995.053950348899</v>
+        <v>2085.618052590261</v>
       </c>
       <c r="AD2" t="n">
-        <v>1611955.327488509</v>
+        <v>1685128.931170577</v>
       </c>
       <c r="AE2" t="n">
-        <v>2205548.39351982</v>
+        <v>2305667.746269186</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.289764223575186e-06</v>
+        <v>2.38640149249821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.78229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1995053.950348899</v>
+        <v>2085618.052590261</v>
       </c>
     </row>
     <row r="3">
@@ -7033,28 +7033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>567.6955428922334</v>
+        <v>604.1970933872473</v>
       </c>
       <c r="AB3" t="n">
-        <v>776.7460867449222</v>
+        <v>826.6891184669563</v>
       </c>
       <c r="AC3" t="n">
-        <v>702.6145303959659</v>
+        <v>747.7910692659345</v>
       </c>
       <c r="AD3" t="n">
-        <v>567695.5428922335</v>
+        <v>604197.0933872473</v>
       </c>
       <c r="AE3" t="n">
-        <v>776746.0867449222</v>
+        <v>826689.1184669563</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412636662084202e-06</v>
+        <v>4.464009487946543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.298958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>702614.5303959659</v>
+        <v>747791.0692659345</v>
       </c>
     </row>
     <row r="4">
@@ -7139,28 +7139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>442.632198801494</v>
+        <v>479.0484084419363</v>
       </c>
       <c r="AB4" t="n">
-        <v>605.6289019546305</v>
+        <v>655.455166554467</v>
       </c>
       <c r="AC4" t="n">
-        <v>547.8285295575822</v>
+        <v>592.8994453956119</v>
       </c>
       <c r="AD4" t="n">
-        <v>442632.198801494</v>
+        <v>479048.4084419363</v>
       </c>
       <c r="AE4" t="n">
-        <v>605628.9019546305</v>
+        <v>655455.1665544671</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.824614285359433e-06</v>
+        <v>5.226275952692041e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.380208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>547828.5295575822</v>
+        <v>592899.4453956119</v>
       </c>
     </row>
     <row r="5">
@@ -7245,28 +7245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.666143292554</v>
+        <v>424.0574340284613</v>
       </c>
       <c r="AB5" t="n">
-        <v>546.8408492787094</v>
+        <v>580.2140893313801</v>
       </c>
       <c r="AC5" t="n">
-        <v>494.6511261195008</v>
+        <v>524.8392709811812</v>
       </c>
       <c r="AD5" t="n">
-        <v>399666.143292554</v>
+        <v>424057.4340284613</v>
       </c>
       <c r="AE5" t="n">
-        <v>546840.8492787094</v>
+        <v>580214.0893313801</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.038918509364857e-06</v>
+        <v>5.622794875040176e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.001041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>494651.1261195008</v>
+        <v>524839.2709811813</v>
       </c>
     </row>
     <row r="6">
@@ -7351,28 +7351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>363.8345829092264</v>
+        <v>400.3360438956893</v>
       </c>
       <c r="AB6" t="n">
-        <v>497.8145275853623</v>
+        <v>547.757436837848</v>
       </c>
       <c r="AC6" t="n">
-        <v>450.3038077596921</v>
+        <v>495.4802358484341</v>
       </c>
       <c r="AD6" t="n">
-        <v>363834.5829092264</v>
+        <v>400336.0438956893</v>
       </c>
       <c r="AE6" t="n">
-        <v>497814.5275853623</v>
+        <v>547757.436837848</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.174299258089862e-06</v>
+        <v>5.8732847048149e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.787500000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>450303.8077596921</v>
+        <v>495480.235848434</v>
       </c>
     </row>
     <row r="7">
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>348.6703415995387</v>
+        <v>385.1718025860016</v>
       </c>
       <c r="AB7" t="n">
-        <v>477.0661436263366</v>
+        <v>527.0090528788222</v>
       </c>
       <c r="AC7" t="n">
-        <v>431.5356204451761</v>
+        <v>476.712048533918</v>
       </c>
       <c r="AD7" t="n">
-        <v>348670.3415995387</v>
+        <v>385171.8025860016</v>
       </c>
       <c r="AE7" t="n">
-        <v>477066.1436263365</v>
+        <v>527009.0528788222</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.26781117612082e-06</v>
+        <v>6.046306235941624e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.649999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>431535.6204451761</v>
+        <v>476712.048533918</v>
       </c>
     </row>
     <row r="8">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>338.9178516498268</v>
+        <v>363.3943937317548</v>
       </c>
       <c r="AB8" t="n">
-        <v>463.7223566276497</v>
+        <v>497.2122413329697</v>
       </c>
       <c r="AC8" t="n">
-        <v>419.4653457495213</v>
+        <v>449.7590028619138</v>
       </c>
       <c r="AD8" t="n">
-        <v>338917.8516498269</v>
+        <v>363394.3937317548</v>
       </c>
       <c r="AE8" t="n">
-        <v>463722.3566276497</v>
+        <v>497212.2413329697</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.329520288955602e-06</v>
+        <v>6.160484251022129e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.563541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>419465.3457495213</v>
+        <v>449759.0028619138</v>
       </c>
     </row>
     <row r="9">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>331.155216630889</v>
+        <v>355.4611665122248</v>
       </c>
       <c r="AB9" t="n">
-        <v>453.1011769314517</v>
+        <v>486.3576498619246</v>
       </c>
       <c r="AC9" t="n">
-        <v>409.8578365366091</v>
+        <v>439.9403583663506</v>
       </c>
       <c r="AD9" t="n">
-        <v>331155.216630889</v>
+        <v>355461.1665122248</v>
       </c>
       <c r="AE9" t="n">
-        <v>453101.1769314517</v>
+        <v>486357.6498619246</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.3808716074375e-06</v>
+        <v>6.255497634729782e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.494791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>409857.836536609</v>
+        <v>439940.3583663505</v>
       </c>
     </row>
     <row r="10">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>324.207084305704</v>
+        <v>348.5130341870398</v>
       </c>
       <c r="AB10" t="n">
-        <v>443.5944357541692</v>
+        <v>476.8509086846423</v>
       </c>
       <c r="AC10" t="n">
-        <v>401.2584053944913</v>
+        <v>431.3409272242329</v>
       </c>
       <c r="AD10" t="n">
-        <v>324207.084305704</v>
+        <v>348513.0341870398</v>
       </c>
       <c r="AE10" t="n">
-        <v>443594.4357541692</v>
+        <v>476850.9086846423</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.424345166834108e-06</v>
+        <v>6.335935101618649e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.4375</v>
       </c>
       <c r="AH10" t="n">
-        <v>401258.4053944913</v>
+        <v>431340.9272242329</v>
       </c>
     </row>
     <row r="11">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>319.2265630697773</v>
+        <v>343.5325129511131</v>
       </c>
       <c r="AB11" t="n">
-        <v>436.7798668740848</v>
+        <v>470.0363398045579</v>
       </c>
       <c r="AC11" t="n">
-        <v>395.0942094040147</v>
+        <v>425.1767312337563</v>
       </c>
       <c r="AD11" t="n">
-        <v>319226.5630697773</v>
+        <v>343532.5129511131</v>
       </c>
       <c r="AE11" t="n">
-        <v>436779.8668740848</v>
+        <v>470036.3398045579</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.456439740885294e-06</v>
+        <v>6.395318466435933e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.396875000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>395094.2094040147</v>
+        <v>425176.7312337563</v>
       </c>
     </row>
     <row r="12">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>315.4443860217412</v>
+        <v>339.7503359030769</v>
       </c>
       <c r="AB12" t="n">
-        <v>431.6049253790867</v>
+        <v>464.8613983095597</v>
       </c>
       <c r="AC12" t="n">
-        <v>390.4131570622232</v>
+        <v>420.4956788919647</v>
       </c>
       <c r="AD12" t="n">
-        <v>315444.3860217412</v>
+        <v>339750.3359030769</v>
       </c>
       <c r="AE12" t="n">
-        <v>431604.9253790867</v>
+        <v>464861.3983095597</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.477447098446071e-06</v>
+        <v>6.434187577952701e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.369791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>390413.1570622232</v>
+        <v>420495.6788919647</v>
       </c>
     </row>
     <row r="13">
@@ -8093,28 +8093,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>311.4923189175377</v>
+        <v>335.7982687988735</v>
       </c>
       <c r="AB13" t="n">
-        <v>426.19753281422</v>
+        <v>459.454005744693</v>
       </c>
       <c r="AC13" t="n">
-        <v>385.5218384544243</v>
+        <v>415.6043602841659</v>
       </c>
       <c r="AD13" t="n">
-        <v>311492.3189175377</v>
+        <v>335798.2687988735</v>
       </c>
       <c r="AE13" t="n">
-        <v>426197.53281422</v>
+        <v>459454.005744693</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.499913300281901e-06</v>
+        <v>6.475755933324798e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.341666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>385521.8384544242</v>
+        <v>415604.3602841659</v>
       </c>
     </row>
     <row r="14">
@@ -8199,28 +8199,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>307.9513039093453</v>
+        <v>332.2572537906811</v>
       </c>
       <c r="AB14" t="n">
-        <v>421.3525598614544</v>
+        <v>454.6090327919274</v>
       </c>
       <c r="AC14" t="n">
-        <v>381.1392629203083</v>
+        <v>411.2217847500499</v>
       </c>
       <c r="AD14" t="n">
-        <v>307951.3039093452</v>
+        <v>332257.2537906811</v>
       </c>
       <c r="AE14" t="n">
-        <v>421352.5598614544</v>
+        <v>454609.0327919274</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.52179596440771e-06</v>
+        <v>6.516244591154765e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.314583333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>381139.2629203083</v>
+        <v>411221.7847500499</v>
       </c>
     </row>
     <row r="15">
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>305.6450199017798</v>
+        <v>329.9509697831156</v>
       </c>
       <c r="AB15" t="n">
-        <v>418.1970003362338</v>
+        <v>451.4534732667068</v>
       </c>
       <c r="AC15" t="n">
-        <v>378.2848655673192</v>
+        <v>408.3673873970607</v>
       </c>
       <c r="AD15" t="n">
-        <v>305645.0199017798</v>
+        <v>329950.9697831156</v>
       </c>
       <c r="AE15" t="n">
-        <v>418197.0003362338</v>
+        <v>451453.4732667068</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.533029065325626e-06</v>
+        <v>6.537028768840814e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.301041666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>378284.8655673192</v>
+        <v>408367.3873970607</v>
       </c>
     </row>
     <row r="16">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>302.2631081310482</v>
+        <v>326.5690580123839</v>
       </c>
       <c r="AB16" t="n">
-        <v>413.5697194521014</v>
+        <v>446.8261923825743</v>
       </c>
       <c r="AC16" t="n">
-        <v>374.0992058763388</v>
+        <v>404.1817277060804</v>
       </c>
       <c r="AD16" t="n">
-        <v>302263.1081310482</v>
+        <v>326569.0580123839</v>
       </c>
       <c r="AE16" t="n">
-        <v>413569.7194521014</v>
+        <v>446826.1923825743</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.549514005633735e-06</v>
+        <v>6.567530224406055e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.28125</v>
       </c>
       <c r="AH16" t="n">
-        <v>374099.2058763388</v>
+        <v>404181.7277060804</v>
       </c>
     </row>
     <row r="17">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>299.4011081917405</v>
+        <v>323.7070580730763</v>
       </c>
       <c r="AB17" t="n">
-        <v>409.6538048726144</v>
+        <v>442.9102778030875</v>
       </c>
       <c r="AC17" t="n">
-        <v>370.5570206882976</v>
+        <v>400.6395425180391</v>
       </c>
       <c r="AD17" t="n">
-        <v>299401.1081917405</v>
+        <v>323707.0580730763</v>
       </c>
       <c r="AE17" t="n">
-        <v>409653.8048726144</v>
+        <v>442910.2778030875</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.565707177086834e-06</v>
+        <v>6.59749183120023e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.261458333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>370557.0206882976</v>
+        <v>400639.5425180391</v>
       </c>
     </row>
     <row r="18">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>297.623992065964</v>
+        <v>321.9299419472998</v>
       </c>
       <c r="AB18" t="n">
-        <v>407.2222761884968</v>
+        <v>440.4787491189699</v>
       </c>
       <c r="AC18" t="n">
-        <v>368.3575536891202</v>
+        <v>398.4400755188618</v>
       </c>
       <c r="AD18" t="n">
-        <v>297623.992065964</v>
+        <v>321929.9419472998</v>
       </c>
       <c r="AE18" t="n">
-        <v>407222.2761884968</v>
+        <v>440478.7491189699</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.570813132049523e-06</v>
+        <v>6.606939184693889e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.255208333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>368357.5536891202</v>
+        <v>398440.0755188618</v>
       </c>
     </row>
     <row r="19">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>294.2014596091802</v>
+        <v>318.507409490516</v>
       </c>
       <c r="AB19" t="n">
-        <v>402.5394162896497</v>
+        <v>435.7958892201227</v>
       </c>
       <c r="AC19" t="n">
-        <v>364.1216193665839</v>
+        <v>394.2041411963254</v>
       </c>
       <c r="AD19" t="n">
-        <v>294201.4596091802</v>
+        <v>318507.409490516</v>
       </c>
       <c r="AE19" t="n">
-        <v>402539.4162896497</v>
+        <v>435795.8892201227</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.588173378922665e-06</v>
+        <v>6.639060186572329e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.235416666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>364121.6193665839</v>
+        <v>394204.1411963254</v>
       </c>
     </row>
     <row r="20">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>292.2978440118861</v>
+        <v>316.6037938932219</v>
       </c>
       <c r="AB20" t="n">
-        <v>399.934805447839</v>
+        <v>433.1912783783119</v>
       </c>
       <c r="AC20" t="n">
-        <v>361.7655889279213</v>
+        <v>391.8481107576628</v>
       </c>
       <c r="AD20" t="n">
-        <v>292297.8440118861</v>
+        <v>316603.7938932219</v>
       </c>
       <c r="AE20" t="n">
-        <v>399934.805447839</v>
+        <v>433191.2783783119</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.595467600297934e-06</v>
+        <v>6.652556405848984e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.226041666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>361765.5889279213</v>
+        <v>391848.1107576627</v>
       </c>
     </row>
     <row r="21">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>290.6407421495868</v>
+        <v>314.9466920309226</v>
       </c>
       <c r="AB21" t="n">
-        <v>397.6674855736663</v>
+        <v>430.9239585041394</v>
       </c>
       <c r="AC21" t="n">
-        <v>359.7146588803363</v>
+        <v>389.7971807100778</v>
       </c>
       <c r="AD21" t="n">
-        <v>290640.7421495868</v>
+        <v>314946.6920309226</v>
       </c>
       <c r="AE21" t="n">
-        <v>397667.4855736663</v>
+        <v>430923.9585041394</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.600573555260623e-06</v>
+        <v>6.662003759342644e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.220833333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>359714.6588803363</v>
+        <v>389797.1807100778</v>
       </c>
     </row>
     <row r="22">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>288.1087206904422</v>
+        <v>312.4146705717781</v>
       </c>
       <c r="AB22" t="n">
-        <v>394.2030621083618</v>
+        <v>427.4595350388349</v>
       </c>
       <c r="AC22" t="n">
-        <v>356.5808751282115</v>
+        <v>386.6633969579531</v>
       </c>
       <c r="AD22" t="n">
-        <v>288108.7206904422</v>
+        <v>312414.6705717781</v>
       </c>
       <c r="AE22" t="n">
-        <v>394203.0621083618</v>
+        <v>427459.5350388348</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.610639580758495e-06</v>
+        <v>6.680628541944427e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.208333333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>356580.8751282115</v>
+        <v>386663.3969579531</v>
       </c>
     </row>
     <row r="23">
@@ -9153,28 +9153,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>285.7560732399654</v>
+        <v>310.0620231213011</v>
       </c>
       <c r="AB23" t="n">
-        <v>390.9840660751389</v>
+        <v>424.2405390056119</v>
       </c>
       <c r="AC23" t="n">
-        <v>353.6690955585101</v>
+        <v>383.7516173882517</v>
       </c>
       <c r="AD23" t="n">
-        <v>285756.0732399654</v>
+        <v>310062.0231213011</v>
       </c>
       <c r="AE23" t="n">
-        <v>390984.0660751389</v>
+        <v>424240.5390056119</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.617350264423743e-06</v>
+        <v>6.693045063678951e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.201041666666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>353669.0955585101</v>
+        <v>383751.6173882517</v>
       </c>
     </row>
     <row r="24">
@@ -9259,28 +9259,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>284.9960262929043</v>
+        <v>309.3019761742401</v>
       </c>
       <c r="AB24" t="n">
-        <v>389.9441363112654</v>
+        <v>423.2006092417383</v>
       </c>
       <c r="AC24" t="n">
-        <v>352.72841523175</v>
+        <v>382.8109370614916</v>
       </c>
       <c r="AD24" t="n">
-        <v>284996.0262929043</v>
+        <v>309301.9761742401</v>
       </c>
       <c r="AE24" t="n">
-        <v>389944.1363112654</v>
+        <v>423200.6092417383</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.615745535721184e-06</v>
+        <v>6.690075895438086e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.203125</v>
       </c>
       <c r="AH24" t="n">
-        <v>352728.41523175</v>
+        <v>382810.9370614916</v>
       </c>
     </row>
     <row r="25">
@@ -9365,28 +9365,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>283.3572621394379</v>
+        <v>307.6632120207736</v>
       </c>
       <c r="AB25" t="n">
-        <v>387.7019068993205</v>
+        <v>420.9583798297934</v>
       </c>
       <c r="AC25" t="n">
-        <v>350.7001810478925</v>
+        <v>380.7827028776341</v>
       </c>
       <c r="AD25" t="n">
-        <v>283357.2621394379</v>
+        <v>307663.2120207736</v>
       </c>
       <c r="AE25" t="n">
-        <v>387701.9068993205</v>
+        <v>420958.3798297935</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.623623294806476e-06</v>
+        <v>6.704651812256875e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.19375</v>
       </c>
       <c r="AH25" t="n">
-        <v>350700.1810478925</v>
+        <v>380782.702877634</v>
       </c>
     </row>
     <row r="26">
@@ -9471,28 +9471,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>280.7478925035048</v>
+        <v>305.0538423848406</v>
       </c>
       <c r="AB26" t="n">
-        <v>384.1316522461731</v>
+        <v>417.3881251766461</v>
       </c>
       <c r="AC26" t="n">
-        <v>347.4706664879576</v>
+        <v>377.553188317699</v>
       </c>
       <c r="AD26" t="n">
-        <v>280747.8925035048</v>
+        <v>305053.8423848405</v>
       </c>
       <c r="AE26" t="n">
-        <v>384131.6522461731</v>
+        <v>417388.1251766461</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.633251667021831e-06</v>
+        <v>6.722466821702059e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.182291666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>347470.6664879576</v>
+        <v>377553.1883176991</v>
       </c>
     </row>
     <row r="27">
@@ -9577,28 +9577,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>280.1296466629123</v>
+        <v>304.4355965442481</v>
       </c>
       <c r="AB27" t="n">
-        <v>383.285741011993</v>
+        <v>416.542213942466</v>
       </c>
       <c r="AC27" t="n">
-        <v>346.7054878347237</v>
+        <v>376.7880096644654</v>
       </c>
       <c r="AD27" t="n">
-        <v>280129.6466629123</v>
+        <v>304435.5965442481</v>
       </c>
       <c r="AE27" t="n">
-        <v>383285.741011993</v>
+        <v>416542.2139424661</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.630917516181745e-06</v>
+        <v>6.71814803153353e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4.185416666666667</v>
       </c>
       <c r="AH27" t="n">
-        <v>346705.4878347237</v>
+        <v>376788.0096644654</v>
       </c>
     </row>
     <row r="28">
@@ -9683,28 +9683,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>278.429186236744</v>
+        <v>302.7351361180799</v>
       </c>
       <c r="AB28" t="n">
-        <v>380.9590960378902</v>
+        <v>414.2155689683632</v>
       </c>
       <c r="AC28" t="n">
-        <v>344.6008945914826</v>
+        <v>374.6834164212241</v>
       </c>
       <c r="AD28" t="n">
-        <v>278429.186236744</v>
+        <v>302735.1361180799</v>
       </c>
       <c r="AE28" t="n">
-        <v>380959.0960378902</v>
+        <v>414215.5689683632</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.639378812977058e-06</v>
+        <v>6.73380364589445e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>4.176041666666667</v>
       </c>
       <c r="AH28" t="n">
-        <v>344600.8945914826</v>
+        <v>374683.4164212241</v>
       </c>
     </row>
     <row r="29">
@@ -9789,28 +9789,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>279.345425661499</v>
+        <v>303.6513755428347</v>
       </c>
       <c r="AB29" t="n">
-        <v>382.2127352404705</v>
+        <v>415.4692081709435</v>
       </c>
       <c r="AC29" t="n">
-        <v>345.7348882280622</v>
+        <v>375.8174100578038</v>
       </c>
       <c r="AD29" t="n">
-        <v>279345.425661499</v>
+        <v>303651.3755428348</v>
       </c>
       <c r="AE29" t="n">
-        <v>382212.7352404704</v>
+        <v>415469.2081709435</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.639524697404563e-06</v>
+        <v>6.734073570279983e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>4.175</v>
       </c>
       <c r="AH29" t="n">
-        <v>345734.8882280622</v>
+        <v>375817.4100578038</v>
       </c>
     </row>
   </sheetData>
@@ -10086,28 +10086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>991.1402578407888</v>
+        <v>1049.788226303783</v>
       </c>
       <c r="AB2" t="n">
-        <v>1356.121826799916</v>
+        <v>1436.366564616746</v>
       </c>
       <c r="AC2" t="n">
-        <v>1226.695462979069</v>
+        <v>1299.281755642858</v>
       </c>
       <c r="AD2" t="n">
-        <v>991140.2578407888</v>
+        <v>1049788.226303783</v>
       </c>
       <c r="AE2" t="n">
-        <v>1356121.826799916</v>
+        <v>1436366.564616746</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.695232679334771e-06</v>
+        <v>3.231375116137704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.272916666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>1226695.462979069</v>
+        <v>1299281.755642858</v>
       </c>
     </row>
     <row r="3">
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>446.6636519624557</v>
+        <v>481.9547883606074</v>
       </c>
       <c r="AB3" t="n">
-        <v>611.1449140246194</v>
+        <v>659.4318037796253</v>
       </c>
       <c r="AC3" t="n">
-        <v>552.818101177383</v>
+        <v>596.4965579452466</v>
       </c>
       <c r="AD3" t="n">
-        <v>446663.6519624557</v>
+        <v>481954.7883606075</v>
       </c>
       <c r="AE3" t="n">
-        <v>611144.9140246194</v>
+        <v>659431.8037796253</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72477753275076e-06</v>
+        <v>5.193846498875301e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.769791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>552818.101177383</v>
+        <v>596496.5579452467</v>
       </c>
     </row>
     <row r="4">
@@ -10298,28 +10298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.4107233342613</v>
+        <v>395.9382371082469</v>
       </c>
       <c r="AB4" t="n">
-        <v>509.5487812675078</v>
+        <v>541.7401635737269</v>
       </c>
       <c r="AC4" t="n">
-        <v>460.9181607395422</v>
+        <v>490.0372426993446</v>
       </c>
       <c r="AD4" t="n">
-        <v>372410.7233342613</v>
+        <v>395938.2371082469</v>
       </c>
       <c r="AE4" t="n">
-        <v>509548.7812675078</v>
+        <v>541740.1635737269</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.092558360627448e-06</v>
+        <v>5.894893517305603e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>460918.1607395422</v>
+        <v>490037.2426993446</v>
       </c>
     </row>
     <row r="5">
@@ -10404,28 +10404,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>329.7433340064085</v>
+        <v>364.9491295499885</v>
       </c>
       <c r="AB5" t="n">
-        <v>451.1693768367721</v>
+        <v>499.3394994695805</v>
       </c>
       <c r="AC5" t="n">
-        <v>408.1104047316672</v>
+        <v>451.6832384675921</v>
       </c>
       <c r="AD5" t="n">
-        <v>329743.3340064085</v>
+        <v>364949.1295499885</v>
       </c>
       <c r="AE5" t="n">
-        <v>451169.3768367721</v>
+        <v>499339.4994695805</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.286182817814888e-06</v>
+        <v>6.263971615231774e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.783333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>408110.4047316673</v>
+        <v>451683.2384675921</v>
       </c>
     </row>
     <row r="6">
@@ -10510,28 +10510,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>311.931224078999</v>
+        <v>335.5439891990051</v>
       </c>
       <c r="AB6" t="n">
-        <v>426.7980622192606</v>
+        <v>459.1060891781289</v>
       </c>
       <c r="AC6" t="n">
-        <v>386.0650541758961</v>
+        <v>415.2896483864106</v>
       </c>
       <c r="AD6" t="n">
-        <v>311931.224078999</v>
+        <v>335543.9891990051</v>
       </c>
       <c r="AE6" t="n">
-        <v>426798.0622192606</v>
+        <v>459106.0891781289</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.409782529768522e-06</v>
+        <v>6.499571741655416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.610416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>386065.0541758961</v>
+        <v>415289.6483864107</v>
       </c>
     </row>
     <row r="7">
@@ -10616,28 +10616,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>300.5263904040328</v>
+        <v>324.1391555240389</v>
       </c>
       <c r="AB7" t="n">
-        <v>411.1934656394203</v>
+        <v>443.5014925982887</v>
       </c>
       <c r="AC7" t="n">
-        <v>371.9497383924469</v>
+        <v>401.1743326029615</v>
       </c>
       <c r="AD7" t="n">
-        <v>300526.3904040328</v>
+        <v>324139.1555240389</v>
       </c>
       <c r="AE7" t="n">
-        <v>411193.4656394203</v>
+        <v>443501.4925982887</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.490975014543926e-06</v>
+        <v>6.654337148268262e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.503125</v>
       </c>
       <c r="AH7" t="n">
-        <v>371949.7383924469</v>
+        <v>401174.3326029615</v>
       </c>
     </row>
     <row r="8">
@@ -10722,28 +10722,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>292.4638220890126</v>
+        <v>315.9059950084265</v>
       </c>
       <c r="AB8" t="n">
-        <v>400.1619039753994</v>
+        <v>432.2365191594208</v>
       </c>
       <c r="AC8" t="n">
-        <v>361.9710134907461</v>
+        <v>390.9844724186096</v>
       </c>
       <c r="AD8" t="n">
-        <v>292463.8220890127</v>
+        <v>315905.9950084265</v>
       </c>
       <c r="AE8" t="n">
-        <v>400161.9039753993</v>
+        <v>432236.5191594207</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.548473781643236e-06</v>
+        <v>6.763938672282191e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.430208333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>361971.0134907461</v>
+        <v>390984.4724186097</v>
       </c>
     </row>
     <row r="9">
@@ -10828,28 +10828,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>286.8642245753517</v>
+        <v>310.3063974947657</v>
       </c>
       <c r="AB9" t="n">
-        <v>392.5002876204013</v>
+        <v>424.5749028044227</v>
       </c>
       <c r="AC9" t="n">
-        <v>355.040611047523</v>
+        <v>384.0540699753865</v>
       </c>
       <c r="AD9" t="n">
-        <v>286864.2245753517</v>
+        <v>310306.3974947657</v>
       </c>
       <c r="AE9" t="n">
-        <v>392500.2876204012</v>
+        <v>424574.9028044227</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.586202631445932e-06</v>
+        <v>6.835855682790018e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.383333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>355040.611047523</v>
+        <v>384054.0699753865</v>
       </c>
     </row>
     <row r="10">
@@ -10934,28 +10934,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>281.5294552523502</v>
+        <v>304.971628171764</v>
       </c>
       <c r="AB10" t="n">
-        <v>385.2010208792583</v>
+        <v>417.2756360632797</v>
       </c>
       <c r="AC10" t="n">
-        <v>348.4379760795694</v>
+        <v>377.4514350074331</v>
       </c>
       <c r="AD10" t="n">
-        <v>281529.4552523502</v>
+        <v>304971.628171764</v>
       </c>
       <c r="AE10" t="n">
-        <v>385201.0208792583</v>
+        <v>417275.6360632797</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.62030951166757e-06</v>
+        <v>6.900868660289094e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.342708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>348437.9760795694</v>
+        <v>377451.4350074331</v>
       </c>
     </row>
     <row r="11">
@@ -11040,28 +11040,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>277.0428627776632</v>
+        <v>300.4850356970772</v>
       </c>
       <c r="AB11" t="n">
-        <v>379.0622671209013</v>
+        <v>411.1368823049226</v>
       </c>
       <c r="AC11" t="n">
-        <v>342.8850963641149</v>
+        <v>371.8985552919785</v>
       </c>
       <c r="AD11" t="n">
-        <v>277042.8627776632</v>
+        <v>300485.0356970772</v>
       </c>
       <c r="AE11" t="n">
-        <v>379062.2671209013</v>
+        <v>411136.8823049226</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.647927029723144e-06</v>
+        <v>6.953511911980823e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.309375</v>
       </c>
       <c r="AH11" t="n">
-        <v>342885.0963641149</v>
+        <v>371898.5552919785</v>
       </c>
     </row>
     <row r="12">
@@ -11146,28 +11146,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>272.460212418203</v>
+        <v>295.902385337617</v>
       </c>
       <c r="AB12" t="n">
-        <v>372.7920827268225</v>
+        <v>404.8666979108439</v>
       </c>
       <c r="AC12" t="n">
-        <v>337.213329568348</v>
+        <v>366.2267884962116</v>
       </c>
       <c r="AD12" t="n">
-        <v>272460.212418203</v>
+        <v>295902.385337617</v>
       </c>
       <c r="AE12" t="n">
-        <v>372792.0827268225</v>
+        <v>404866.6979108439</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.676148209375562e-06</v>
+        <v>7.007305835840679e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.276041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>337213.329568348</v>
+        <v>366226.7884962116</v>
       </c>
     </row>
     <row r="13">
@@ -11252,28 +11252,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>269.4568771623585</v>
+        <v>292.8990500817724</v>
       </c>
       <c r="AB13" t="n">
-        <v>368.6827869319757</v>
+        <v>400.7574021159972</v>
       </c>
       <c r="AC13" t="n">
-        <v>333.4962191967285</v>
+        <v>362.5096781245922</v>
       </c>
       <c r="AD13" t="n">
-        <v>269456.8771623585</v>
+        <v>292899.0500817724</v>
       </c>
       <c r="AE13" t="n">
-        <v>368682.7869319757</v>
+        <v>400757.4021159972</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.689881510703743e-06</v>
+        <v>7.033483627665527e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.260416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>333496.2191967285</v>
+        <v>362509.6781245922</v>
       </c>
     </row>
     <row r="14">
@@ -11358,28 +11358,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>265.4886129068615</v>
+        <v>288.9307858262754</v>
       </c>
       <c r="AB14" t="n">
-        <v>363.2532327101414</v>
+        <v>395.3278478941629</v>
       </c>
       <c r="AC14" t="n">
-        <v>328.584854009399</v>
+        <v>357.5983129372624</v>
       </c>
       <c r="AD14" t="n">
-        <v>265488.6129068615</v>
+        <v>288930.7858262754</v>
       </c>
       <c r="AE14" t="n">
-        <v>363253.2327101415</v>
+        <v>395327.8478941629</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.710858751194042e-06</v>
+        <v>7.07346948550788e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.236458333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>328584.854009399</v>
+        <v>357598.3129372625</v>
       </c>
     </row>
     <row r="15">
@@ -11464,28 +11464,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>262.4709912524556</v>
+        <v>285.9131641718695</v>
       </c>
       <c r="AB15" t="n">
-        <v>359.1243896345117</v>
+        <v>391.1990048185331</v>
       </c>
       <c r="AC15" t="n">
-        <v>324.8500619220396</v>
+        <v>353.8635208499031</v>
       </c>
       <c r="AD15" t="n">
-        <v>262470.9912524556</v>
+        <v>285913.1641718695</v>
       </c>
       <c r="AE15" t="n">
-        <v>359124.3896345117</v>
+        <v>391199.0048185331</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.725195714119067e-06</v>
+        <v>7.100797949500854e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.219791666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>324850.0619220396</v>
+        <v>353863.5208499031</v>
       </c>
     </row>
     <row r="16">
@@ -11570,28 +11570,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>260.0043650652217</v>
+        <v>283.4465379846356</v>
       </c>
       <c r="AB16" t="n">
-        <v>355.749442865271</v>
+        <v>387.8240580492924</v>
       </c>
       <c r="AC16" t="n">
-        <v>321.7972153356877</v>
+        <v>350.8106742635513</v>
       </c>
       <c r="AD16" t="n">
-        <v>260004.3650652217</v>
+        <v>283446.5379846356</v>
       </c>
       <c r="AE16" t="n">
-        <v>355749.442865271</v>
+        <v>387824.0580492924</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.732288737881974e-06</v>
+        <v>7.114318347476326e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.212499999999999</v>
       </c>
       <c r="AH16" t="n">
-        <v>321797.2153356877</v>
+        <v>350810.6742635512</v>
       </c>
     </row>
     <row r="17">
@@ -11676,28 +11676,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>256.5158769046546</v>
+        <v>279.9580498240717</v>
       </c>
       <c r="AB17" t="n">
-        <v>350.9763394625813</v>
+        <v>383.050954646773</v>
       </c>
       <c r="AC17" t="n">
-        <v>317.4796502227636</v>
+        <v>346.4931091506756</v>
       </c>
       <c r="AD17" t="n">
-        <v>256515.8769046546</v>
+        <v>279958.0498240717</v>
       </c>
       <c r="AE17" t="n">
-        <v>350976.3394625813</v>
+        <v>383050.954646773</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.74873851639595e-06</v>
+        <v>7.145674164057739e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.19375</v>
       </c>
       <c r="AH17" t="n">
-        <v>317479.6502227636</v>
+        <v>346493.1091506756</v>
       </c>
     </row>
     <row r="18">
@@ -11782,28 +11782,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>254.1572150591633</v>
+        <v>277.5993879785803</v>
       </c>
       <c r="AB18" t="n">
-        <v>347.749114268765</v>
+        <v>379.8237294529551</v>
       </c>
       <c r="AC18" t="n">
-        <v>314.5604268720051</v>
+        <v>343.5738857999167</v>
       </c>
       <c r="AD18" t="n">
-        <v>254157.2150591633</v>
+        <v>277599.3879785803</v>
       </c>
       <c r="AE18" t="n">
-        <v>347749.114268765</v>
+        <v>379823.7294529551</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.755227878562014e-06</v>
+        <v>7.158043889865085e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.186458333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>314560.4268720051</v>
+        <v>343573.8857999167</v>
       </c>
     </row>
     <row r="19">
@@ -11888,28 +11888,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>251.2593380393897</v>
+        <v>274.7015109588069</v>
       </c>
       <c r="AB19" t="n">
-        <v>343.7841110850016</v>
+        <v>375.8587262691897</v>
       </c>
       <c r="AC19" t="n">
-        <v>310.9738380271819</v>
+        <v>339.9872969550929</v>
       </c>
       <c r="AD19" t="n">
-        <v>251259.3380393898</v>
+        <v>274701.5109588068</v>
       </c>
       <c r="AE19" t="n">
-        <v>343784.1110850016</v>
+        <v>375858.7262691897</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.76413188711545e-06</v>
+        <v>7.175016304344933e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.176041666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>310973.8380271819</v>
+        <v>339987.2969550929</v>
       </c>
     </row>
     <row r="20">
@@ -11994,28 +11994,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>250.5602070458949</v>
+        <v>274.0023799653119</v>
       </c>
       <c r="AB20" t="n">
-        <v>342.8275292162198</v>
+        <v>374.9021444004073</v>
       </c>
       <c r="AC20" t="n">
-        <v>310.1085509893852</v>
+        <v>339.1220099172961</v>
       </c>
       <c r="AD20" t="n">
-        <v>250560.2070458949</v>
+        <v>274002.3799653119</v>
       </c>
       <c r="AE20" t="n">
-        <v>342827.5292162198</v>
+        <v>374902.1444004073</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.768810264490985e-06</v>
+        <v>7.183934013647904e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.170833333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>310108.5509893852</v>
+        <v>339122.0099172961</v>
       </c>
     </row>
     <row r="21">
@@ -12100,28 +12100,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>251.59825247009</v>
+        <v>275.040425389507</v>
       </c>
       <c r="AB21" t="n">
-        <v>344.2478287609349</v>
+        <v>376.3224439451232</v>
       </c>
       <c r="AC21" t="n">
-        <v>311.3932991389561</v>
+        <v>340.4067580668672</v>
       </c>
       <c r="AD21" t="n">
-        <v>251598.25247009</v>
+        <v>275040.425389507</v>
       </c>
       <c r="AE21" t="n">
-        <v>344247.8287609349</v>
+        <v>376322.4439451232</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.768508433692563e-06</v>
+        <v>7.183358677563841e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.171875</v>
       </c>
       <c r="AH21" t="n">
-        <v>311393.2991389561</v>
+        <v>340406.7580668671</v>
       </c>
     </row>
   </sheetData>
@@ -12397,28 +12397,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.6725786593137</v>
+        <v>380.355666914934</v>
       </c>
       <c r="AB2" t="n">
-        <v>463.3867633013489</v>
+        <v>520.4194035807575</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.1617809792745</v>
+        <v>470.7513061162295</v>
       </c>
       <c r="AD2" t="n">
-        <v>338672.5786593137</v>
+        <v>380355.6669149341</v>
       </c>
       <c r="AE2" t="n">
-        <v>463386.7633013489</v>
+        <v>520419.4035807574</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.951708197877946e-06</v>
+        <v>6.286365990783534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.942708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>419161.7809792745</v>
+        <v>470751.3061162295</v>
       </c>
     </row>
     <row r="3">
@@ -12503,28 +12503,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.8507647654185</v>
+        <v>265.1557513844224</v>
       </c>
       <c r="AB3" t="n">
-        <v>319.9649331195168</v>
+        <v>362.7977968903263</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.4279289762892</v>
+        <v>328.1728843450188</v>
       </c>
       <c r="AD3" t="n">
-        <v>233850.7647654185</v>
+        <v>265155.7513844224</v>
       </c>
       <c r="AE3" t="n">
-        <v>319964.9331195168</v>
+        <v>362797.7968903263</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.676836877708071e-06</v>
+        <v>7.830700310518466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.770833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>289427.9289762892</v>
+        <v>328172.8843450188</v>
       </c>
     </row>
     <row r="4">
@@ -12609,28 +12609,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.189280231355</v>
+        <v>231.0309138677159</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.5902461090025</v>
+        <v>316.1066887182404</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.1430366558894</v>
+        <v>285.9379100055893</v>
       </c>
       <c r="AD4" t="n">
-        <v>210189.280231355</v>
+        <v>231030.9138677159</v>
       </c>
       <c r="AE4" t="n">
-        <v>287590.2461090025</v>
+        <v>316106.6887182404</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.920679499258006e-06</v>
+        <v>8.350021280090269e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.473958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>260143.0366558894</v>
+        <v>285937.9100055893</v>
       </c>
     </row>
     <row r="5">
@@ -12715,28 +12715,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>196.9929693781926</v>
+        <v>217.8346030145536</v>
       </c>
       <c r="AB5" t="n">
-        <v>269.5344714195681</v>
+        <v>298.0509140288061</v>
       </c>
       <c r="AC5" t="n">
-        <v>243.81047976137</v>
+        <v>269.6053531110699</v>
       </c>
       <c r="AD5" t="n">
-        <v>196992.9693781926</v>
+        <v>217834.6030145535</v>
       </c>
       <c r="AE5" t="n">
-        <v>269534.4714195681</v>
+        <v>298050.9140288061</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.051357589259906e-06</v>
+        <v>8.628331412954718e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.330208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>243810.47976137</v>
+        <v>269605.3531110699</v>
       </c>
     </row>
     <row r="6">
@@ -12821,28 +12821,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>188.2824273583819</v>
+        <v>209.1240609947428</v>
       </c>
       <c r="AB6" t="n">
-        <v>257.6163235460764</v>
+        <v>286.1327661553144</v>
       </c>
       <c r="AC6" t="n">
-        <v>233.029783193695</v>
+        <v>258.8246565433949</v>
       </c>
       <c r="AD6" t="n">
-        <v>188282.4273583819</v>
+        <v>209124.0609947428</v>
       </c>
       <c r="AE6" t="n">
-        <v>257616.3235460765</v>
+        <v>286132.7661553144</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.124948214686233e-06</v>
+        <v>8.785060186230186e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.253125</v>
       </c>
       <c r="AH6" t="n">
-        <v>233029.783193695</v>
+        <v>258824.6565433949</v>
       </c>
     </row>
     <row r="7">
@@ -12927,28 +12927,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>185.9214008682057</v>
+        <v>206.7630345045666</v>
       </c>
       <c r="AB7" t="n">
-        <v>254.3858629410815</v>
+        <v>282.9023055503195</v>
       </c>
       <c r="AC7" t="n">
-        <v>230.1076332148598</v>
+        <v>255.9025065645597</v>
       </c>
       <c r="AD7" t="n">
-        <v>185921.4008682057</v>
+        <v>206763.0345045666</v>
       </c>
       <c r="AE7" t="n">
-        <v>254385.8629410815</v>
+        <v>282902.3055503195</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.149702955962366e-06</v>
+        <v>8.837781306759919e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.227083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>230107.6332148598</v>
+        <v>255902.5065645597</v>
       </c>
     </row>
   </sheetData>
@@ -13224,28 +13224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>497.4390911488842</v>
+        <v>541.240934479114</v>
       </c>
       <c r="AB2" t="n">
-        <v>680.6181099737728</v>
+        <v>740.5497244191389</v>
       </c>
       <c r="AC2" t="n">
-        <v>615.660872811392</v>
+        <v>669.8726980886415</v>
       </c>
       <c r="AD2" t="n">
-        <v>497439.0911488843</v>
+        <v>541240.934479114</v>
       </c>
       <c r="AE2" t="n">
-        <v>680618.1099737728</v>
+        <v>740549.7244191389</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.444086848180563e-06</v>
+        <v>4.962341300015258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.865624999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>615660.8728113919</v>
+        <v>669872.6980886415</v>
       </c>
     </row>
     <row r="3">
@@ -13330,28 +13330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.7610908549682</v>
+        <v>331.70477245592</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.8287902026208</v>
+        <v>453.8531034559511</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.3791653131249</v>
+        <v>410.5380002489457</v>
       </c>
       <c r="AD3" t="n">
-        <v>309761.0908549682</v>
+        <v>331704.77245592</v>
       </c>
       <c r="AE3" t="n">
-        <v>423828.7902026208</v>
+        <v>453853.1034559511</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.295191641466299e-06</v>
+        <v>6.690378284260239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.092708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>383379.1653131249</v>
+        <v>410538.0002489457</v>
       </c>
     </row>
     <row r="4">
@@ -13436,28 +13436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>261.4679709062709</v>
+        <v>294.2980181903002</v>
       </c>
       <c r="AB4" t="n">
-        <v>357.7520129467271</v>
+        <v>402.6715320002021</v>
       </c>
       <c r="AC4" t="n">
-        <v>323.6086629391943</v>
+        <v>364.2411261391467</v>
       </c>
       <c r="AD4" t="n">
-        <v>261467.9709062708</v>
+        <v>294298.0181903003</v>
       </c>
       <c r="AE4" t="n">
-        <v>357752.012946727</v>
+        <v>402671.5320002021</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.595164597191842e-06</v>
+        <v>7.299427094531705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.667708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>323608.6629391944</v>
+        <v>364241.1261391467</v>
       </c>
     </row>
     <row r="5">
@@ -13542,28 +13542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>244.3263426975006</v>
+        <v>266.1846834438838</v>
       </c>
       <c r="AB5" t="n">
-        <v>334.2980809960658</v>
+        <v>364.2056271273601</v>
       </c>
       <c r="AC5" t="n">
-        <v>302.3931413362042</v>
+        <v>329.4463532401322</v>
       </c>
       <c r="AD5" t="n">
-        <v>244326.3426975006</v>
+        <v>266184.6834438838</v>
       </c>
       <c r="AE5" t="n">
-        <v>334298.0809960658</v>
+        <v>364205.6271273601</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.746439895487376e-06</v>
+        <v>7.606568250731977e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>302393.1413362043</v>
+        <v>329446.3532401322</v>
       </c>
     </row>
     <row r="6">
@@ -13648,28 +13648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>234.0560791076035</v>
+        <v>255.9144198539834</v>
       </c>
       <c r="AB6" t="n">
-        <v>320.2458532603238</v>
+        <v>350.1533993914409</v>
       </c>
       <c r="AC6" t="n">
-        <v>289.6820384931315</v>
+        <v>316.7352503970089</v>
       </c>
       <c r="AD6" t="n">
-        <v>234056.0791076035</v>
+        <v>255914.4198539834</v>
       </c>
       <c r="AE6" t="n">
-        <v>320245.8532603238</v>
+        <v>350153.3993914409</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.833757479807056e-06</v>
+        <v>7.783853135354499e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.377083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>289682.0384931315</v>
+        <v>316735.250397009</v>
       </c>
     </row>
     <row r="7">
@@ -13754,28 +13754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>225.7038059176354</v>
+        <v>247.5621466640152</v>
       </c>
       <c r="AB7" t="n">
-        <v>308.8179046055277</v>
+        <v>338.7254507366449</v>
       </c>
       <c r="AC7" t="n">
-        <v>279.3447572187189</v>
+        <v>306.3979691225963</v>
       </c>
       <c r="AD7" t="n">
-        <v>225703.8059176354</v>
+        <v>247562.1466640153</v>
       </c>
       <c r="AE7" t="n">
-        <v>308817.9046055277</v>
+        <v>338725.4507366449</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.90222606529758e-06</v>
+        <v>7.922868035658136e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.301041666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>279344.7572187189</v>
+        <v>306397.9691225963</v>
       </c>
     </row>
     <row r="8">
@@ -13860,28 +13860,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>219.1921776963108</v>
+        <v>241.0505184426906</v>
       </c>
       <c r="AB8" t="n">
-        <v>299.9084076003533</v>
+        <v>329.8159537314705</v>
       </c>
       <c r="AC8" t="n">
-        <v>271.2855701031579</v>
+        <v>298.3387820070354</v>
       </c>
       <c r="AD8" t="n">
-        <v>219192.1776963107</v>
+        <v>241050.5184426905</v>
       </c>
       <c r="AE8" t="n">
-        <v>299908.4076003533</v>
+        <v>329815.9537314705</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.946368165119707e-06</v>
+        <v>8.012491759618599e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.252083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>271285.5701031579</v>
+        <v>298338.7820070354</v>
       </c>
     </row>
     <row r="9">
@@ -13966,28 +13966,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>213.6078467388409</v>
+        <v>235.4661874852207</v>
       </c>
       <c r="AB9" t="n">
-        <v>292.2676796210525</v>
+        <v>322.1752257521697</v>
       </c>
       <c r="AC9" t="n">
-        <v>264.37406247837</v>
+        <v>291.4272743822474</v>
       </c>
       <c r="AD9" t="n">
-        <v>213607.8467388409</v>
+        <v>235466.1874852207</v>
       </c>
       <c r="AE9" t="n">
-        <v>292267.6796210525</v>
+        <v>322175.2257521697</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.981810727020683e-06</v>
+        <v>8.084452413893423e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.214583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>264374.06247837</v>
+        <v>291427.2743822475</v>
       </c>
     </row>
     <row r="10">
@@ -14072,28 +14072,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>209.7502539718717</v>
+        <v>231.6085947182515</v>
       </c>
       <c r="AB10" t="n">
-        <v>286.9895510123062</v>
+        <v>316.8970971434233</v>
       </c>
       <c r="AC10" t="n">
-        <v>259.5996710561407</v>
+        <v>286.6528829600182</v>
       </c>
       <c r="AD10" t="n">
-        <v>209750.2539718717</v>
+        <v>231608.5947182515</v>
       </c>
       <c r="AE10" t="n">
-        <v>286989.5510123061</v>
+        <v>316897.0971434233</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.999370905417076e-06</v>
+        <v>8.120105647147767e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.195833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>259599.6710561407</v>
+        <v>286652.8829600182</v>
       </c>
     </row>
     <row r="11">
@@ -14178,28 +14178,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>209.8137967849592</v>
+        <v>231.672137531339</v>
       </c>
       <c r="AB11" t="n">
-        <v>287.0764930924834</v>
+        <v>316.9840392236006</v>
       </c>
       <c r="AC11" t="n">
-        <v>259.6783155062099</v>
+        <v>286.7315274100874</v>
       </c>
       <c r="AD11" t="n">
-        <v>209813.7967849592</v>
+        <v>231672.137531339</v>
       </c>
       <c r="AE11" t="n">
-        <v>287076.4930924834</v>
+        <v>316984.0392236006</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.005009494810415e-06</v>
+        <v>8.131553933055126e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.190625</v>
       </c>
       <c r="AH11" t="n">
-        <v>259678.3155062099</v>
+        <v>286731.5274100874</v>
       </c>
     </row>
   </sheetData>
@@ -14475,28 +14475,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.611586941308</v>
+        <v>284.5804596316995</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.3708059233878</v>
+        <v>389.3755396718975</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.1227851476606</v>
+        <v>352.2140846576131</v>
       </c>
       <c r="AD2" t="n">
-        <v>254611.586941308</v>
+        <v>284580.4596316994</v>
       </c>
       <c r="AE2" t="n">
-        <v>348370.8059233878</v>
+        <v>389375.5396718975</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.387233195021386e-06</v>
+        <v>7.542706717236821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.379166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>315122.7851476606</v>
+        <v>352214.0846576131</v>
       </c>
     </row>
     <row r="3">
@@ -14581,28 +14581,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.9247639578712</v>
+        <v>208.1030814064295</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.1269527025023</v>
+        <v>284.7358168401443</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.5871172165951</v>
+        <v>257.5610301102335</v>
       </c>
       <c r="AD3" t="n">
-        <v>187924.7639578712</v>
+        <v>208103.0814064295</v>
       </c>
       <c r="AE3" t="n">
-        <v>257126.9527025023</v>
+        <v>284735.8168401443</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.003745665329146e-06</v>
+        <v>8.915559568905113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="AH3" t="n">
-        <v>232587.1172165951</v>
+        <v>257561.0301102335</v>
       </c>
     </row>
     <row r="4">
@@ -14687,28 +14687,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.9678495243375</v>
+        <v>189.9755747723037</v>
       </c>
       <c r="AB4" t="n">
-        <v>232.5575101714</v>
+        <v>259.9329625341952</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.3625477972242</v>
+        <v>235.1253254082116</v>
       </c>
       <c r="AD4" t="n">
-        <v>169967.8495243375</v>
+        <v>189975.5747723037</v>
       </c>
       <c r="AE4" t="n">
-        <v>232557.5101714</v>
+        <v>259932.9625341951</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.214146942429922e-06</v>
+        <v>9.384082116580844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>210362.5477972242</v>
+        <v>235125.3254082116</v>
       </c>
     </row>
     <row r="5">
@@ -14793,28 +14793,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>167.9808801278413</v>
+        <v>187.9886053758074</v>
       </c>
       <c r="AB5" t="n">
-        <v>229.838850984212</v>
+        <v>257.2143033470072</v>
       </c>
       <c r="AC5" t="n">
-        <v>207.9033536271984</v>
+        <v>232.6661312381859</v>
       </c>
       <c r="AD5" t="n">
-        <v>167980.8801278413</v>
+        <v>187988.6053758074</v>
       </c>
       <c r="AE5" t="n">
-        <v>229838.850984212</v>
+        <v>257214.3033470071</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.241430898562691e-06</v>
+        <v>9.444838157675951e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.295833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>207903.3536271984</v>
+        <v>232666.1312381859</v>
       </c>
     </row>
   </sheetData>
@@ -15090,28 +15090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1110.237008083216</v>
+        <v>1169.623159721175</v>
       </c>
       <c r="AB2" t="n">
-        <v>1519.075254659404</v>
+        <v>1600.330007262564</v>
       </c>
       <c r="AC2" t="n">
-        <v>1374.09684439022</v>
+        <v>1447.596757446696</v>
       </c>
       <c r="AD2" t="n">
-        <v>1110237.008083216</v>
+        <v>1169623.159721175</v>
       </c>
       <c r="AE2" t="n">
-        <v>1519075.254659404</v>
+        <v>1600330.007262564</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.58638013044166e-06</v>
+        <v>2.999469915264235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.820833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1374096.84439022</v>
+        <v>1447596.757446696</v>
       </c>
     </row>
     <row r="3">
@@ -15196,28 +15196,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>472.2135539790202</v>
+        <v>507.8452449617956</v>
       </c>
       <c r="AB3" t="n">
-        <v>646.1034171458073</v>
+        <v>694.8562687077035</v>
       </c>
       <c r="AC3" t="n">
-        <v>584.4402138252519</v>
+        <v>628.5401616591379</v>
       </c>
       <c r="AD3" t="n">
-        <v>472213.5539790202</v>
+        <v>507845.2449617956</v>
       </c>
       <c r="AE3" t="n">
-        <v>646103.4171458073</v>
+        <v>694856.2687077036</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.642421433453687e-06</v>
+        <v>4.996194443564485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.895833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>584440.2138252519</v>
+        <v>628540.1616591379</v>
       </c>
     </row>
     <row r="4">
@@ -15302,28 +15302,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.5339877237978</v>
+        <v>413.2885378875325</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.9775870303813</v>
+        <v>565.4796105411939</v>
       </c>
       <c r="AC4" t="n">
-        <v>482.1109541629423</v>
+        <v>511.5110301667595</v>
       </c>
       <c r="AD4" t="n">
-        <v>389533.9877237978</v>
+        <v>413288.5378875326</v>
       </c>
       <c r="AE4" t="n">
-        <v>532977.5870303813</v>
+        <v>565479.6105411939</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.022004045979465e-06</v>
+        <v>5.713895456569164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.155208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>482110.9541629424</v>
+        <v>511511.0301667595</v>
       </c>
     </row>
     <row r="5">
@@ -15408,28 +15408,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>344.9250748700028</v>
+        <v>380.4714249982068</v>
       </c>
       <c r="AB5" t="n">
-        <v>471.9417044574789</v>
+        <v>520.5777888971774</v>
       </c>
       <c r="AC5" t="n">
-        <v>426.9002505583986</v>
+        <v>470.8945753603456</v>
       </c>
       <c r="AD5" t="n">
-        <v>344925.0748700029</v>
+        <v>380471.4249982068</v>
       </c>
       <c r="AE5" t="n">
-        <v>471941.7044574789</v>
+        <v>520577.7888971774</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.21553434566755e-06</v>
+        <v>6.079815515997081e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.844791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>426900.2505583986</v>
+        <v>470894.5753603456</v>
       </c>
     </row>
     <row r="6">
@@ -15514,28 +15514,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.8443755403982</v>
+        <v>360.3907256686022</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.4664057367828</v>
+        <v>493.1024901764814</v>
       </c>
       <c r="AC6" t="n">
-        <v>402.0471557857819</v>
+        <v>446.0414805877289</v>
       </c>
       <c r="AD6" t="n">
-        <v>324844.3755403982</v>
+        <v>360390.7256686022</v>
       </c>
       <c r="AE6" t="n">
-        <v>444466.4057367828</v>
+        <v>493102.4901764814</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.347446033708423e-06</v>
+        <v>6.329229343211473e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.654166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>402047.1557857819</v>
+        <v>446041.4805877288</v>
       </c>
     </row>
     <row r="7">
@@ -15620,28 +15620,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>313.2777911976981</v>
+        <v>337.1175927074534</v>
       </c>
       <c r="AB7" t="n">
-        <v>428.6404947574133</v>
+        <v>461.259162920875</v>
       </c>
       <c r="AC7" t="n">
-        <v>387.7316475384778</v>
+        <v>417.2372357930071</v>
       </c>
       <c r="AD7" t="n">
-        <v>313277.7911976981</v>
+        <v>337117.5927074534</v>
       </c>
       <c r="AE7" t="n">
-        <v>428640.4947574133</v>
+        <v>461259.1629208751</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.427310933270584e-06</v>
+        <v>6.480234993701819e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.545833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>387731.6475384778</v>
+        <v>417237.2357930071</v>
       </c>
     </row>
     <row r="8">
@@ -15726,28 +15726,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>303.5791916754923</v>
+        <v>327.2484009846554</v>
       </c>
       <c r="AB8" t="n">
-        <v>415.3704430191181</v>
+        <v>447.7556994077329</v>
       </c>
       <c r="AC8" t="n">
-        <v>375.7280709134509</v>
+        <v>405.0225238853291</v>
       </c>
       <c r="AD8" t="n">
-        <v>303579.1916754923</v>
+        <v>327248.4009846554</v>
       </c>
       <c r="AE8" t="n">
-        <v>415370.443019118</v>
+        <v>447755.6994077329</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.494612814924091e-06</v>
+        <v>6.607486946362223e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.458333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>375728.0709134509</v>
+        <v>405022.5238853291</v>
       </c>
     </row>
     <row r="9">
@@ -15832,28 +15832,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>298.3203516548714</v>
+        <v>321.9895609640344</v>
       </c>
       <c r="AB9" t="n">
-        <v>408.1750660992567</v>
+        <v>440.5603224878716</v>
       </c>
       <c r="AC9" t="n">
-        <v>369.2194106680462</v>
+        <v>398.5138636399246</v>
       </c>
       <c r="AD9" t="n">
-        <v>298320.3516548714</v>
+        <v>321989.5609640344</v>
       </c>
       <c r="AE9" t="n">
-        <v>408175.0660992567</v>
+        <v>440560.3224878716</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.529161114172891e-06</v>
+        <v>6.672809615394565e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.414583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>369219.4106680462</v>
+        <v>398513.8636399246</v>
       </c>
     </row>
     <row r="10">
@@ -15938,28 +15938,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>291.9911019740373</v>
+        <v>315.6603112832004</v>
       </c>
       <c r="AB10" t="n">
-        <v>399.5151074591505</v>
+        <v>431.9003638477654</v>
       </c>
       <c r="AC10" t="n">
-        <v>361.3859463262235</v>
+        <v>390.6803992981018</v>
       </c>
       <c r="AD10" t="n">
-        <v>291991.1019740373</v>
+        <v>315660.3112832004</v>
       </c>
       <c r="AE10" t="n">
-        <v>399515.1074591505</v>
+        <v>431900.3638477654</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.573131676853183e-06</v>
+        <v>6.755947557799362e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.360416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>361385.9463262234</v>
+        <v>390680.3992981018</v>
       </c>
     </row>
     <row r="11">
@@ -16044,28 +16044,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>287.4073734871025</v>
+        <v>311.0765827962655</v>
       </c>
       <c r="AB11" t="n">
-        <v>393.2434479234973</v>
+        <v>425.6287043121122</v>
       </c>
       <c r="AC11" t="n">
-        <v>355.7128451743235</v>
+        <v>385.0072981462018</v>
       </c>
       <c r="AD11" t="n">
-        <v>287407.3734871024</v>
+        <v>311076.5827962655</v>
       </c>
       <c r="AE11" t="n">
-        <v>393243.4479234973</v>
+        <v>425628.7043121122</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.599603750303562e-06</v>
+        <v>6.805999992512454e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.328125</v>
       </c>
       <c r="AH11" t="n">
-        <v>355712.8451743235</v>
+        <v>385007.2981462018</v>
       </c>
     </row>
     <row r="12">
@@ -16150,28 +16150,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>283.6940976852528</v>
+        <v>307.363306994416</v>
       </c>
       <c r="AB12" t="n">
-        <v>388.16278015324</v>
+        <v>420.548036541855</v>
       </c>
       <c r="AC12" t="n">
-        <v>351.1170692052976</v>
+        <v>380.411522177176</v>
       </c>
       <c r="AD12" t="n">
-        <v>283694.0976852528</v>
+        <v>307363.3069944159</v>
       </c>
       <c r="AE12" t="n">
-        <v>388162.78015324</v>
+        <v>420548.036541855</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.620691673221661e-06</v>
+        <v>6.845872271012714e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.303125000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>351117.0692052976</v>
+        <v>380411.522177176</v>
       </c>
     </row>
     <row r="13">
@@ -16256,28 +16256,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>279.8788092594107</v>
+        <v>303.5480185685738</v>
       </c>
       <c r="AB13" t="n">
-        <v>382.9425342103568</v>
+        <v>415.3277905989718</v>
       </c>
       <c r="AC13" t="n">
-        <v>346.395036208542</v>
+        <v>375.6894891804203</v>
       </c>
       <c r="AD13" t="n">
-        <v>279878.8092594107</v>
+        <v>303548.0185685738</v>
       </c>
       <c r="AE13" t="n">
-        <v>382942.5342103568</v>
+        <v>415327.7905989718</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.64177959613976e-06</v>
+        <v>6.885744549512974e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.278125</v>
       </c>
       <c r="AH13" t="n">
-        <v>346395.0362085419</v>
+        <v>375689.4891804203</v>
       </c>
     </row>
     <row r="14">
@@ -16362,28 +16362,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>276.9795954677239</v>
+        <v>300.648804776887</v>
       </c>
       <c r="AB14" t="n">
-        <v>378.9757019962855</v>
+        <v>411.3609583849004</v>
       </c>
       <c r="AC14" t="n">
-        <v>342.8067928934976</v>
+        <v>372.1012458653759</v>
       </c>
       <c r="AD14" t="n">
-        <v>276979.5954677239</v>
+        <v>300648.804776887</v>
       </c>
       <c r="AE14" t="n">
-        <v>378975.7019962855</v>
+        <v>411360.9583849004</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.65389393483739e-06</v>
+        <v>6.908649900991845e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.263541666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>342806.7928934976</v>
+        <v>372101.2458653759</v>
       </c>
     </row>
     <row r="15">
@@ -16468,28 +16468,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>273.629692969836</v>
+        <v>297.2989022789991</v>
       </c>
       <c r="AB15" t="n">
-        <v>374.3922176114073</v>
+        <v>406.7774740000222</v>
       </c>
       <c r="AC15" t="n">
-        <v>338.6607498253514</v>
+        <v>367.9552027972297</v>
       </c>
       <c r="AD15" t="n">
-        <v>273629.6929698359</v>
+        <v>297298.9022789991</v>
       </c>
       <c r="AE15" t="n">
-        <v>374392.2176114073</v>
+        <v>406777.4740000222</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.670794185119272e-06</v>
+        <v>6.940604280215459e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.24375</v>
       </c>
       <c r="AH15" t="n">
-        <v>338660.7498253514</v>
+        <v>367955.2027972298</v>
       </c>
     </row>
     <row r="16">
@@ -16574,28 +16574,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>271.0601728420265</v>
+        <v>294.7293821511896</v>
       </c>
       <c r="AB16" t="n">
-        <v>370.8764868133108</v>
+        <v>403.2617432019258</v>
       </c>
       <c r="AC16" t="n">
-        <v>335.4805554402661</v>
+        <v>364.7750084121444</v>
       </c>
       <c r="AD16" t="n">
-        <v>271060.1728420265</v>
+        <v>294729.3821511896</v>
       </c>
       <c r="AE16" t="n">
-        <v>370876.4868133108</v>
+        <v>403261.7432019258</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.68515191987202e-06</v>
+        <v>6.967751363449678e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.227083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>335480.5554402662</v>
+        <v>364775.0084121444</v>
       </c>
     </row>
     <row r="17">
@@ -16680,28 +16680,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>267.7162295978458</v>
+        <v>291.3854389070088</v>
       </c>
       <c r="AB17" t="n">
-        <v>366.3011561422586</v>
+        <v>398.6864125308736</v>
       </c>
       <c r="AC17" t="n">
-        <v>331.3418879069422</v>
+        <v>360.6363408788205</v>
       </c>
       <c r="AD17" t="n">
-        <v>267716.2295978458</v>
+        <v>291385.4389070089</v>
       </c>
       <c r="AE17" t="n">
-        <v>366301.1561422586</v>
+        <v>398686.4125308736</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.700407013046815e-06</v>
+        <v>6.996595139386037e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.210416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>331341.8879069422</v>
+        <v>360636.3408788205</v>
       </c>
     </row>
     <row r="18">
@@ -16786,28 +16786,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>265.6333371361273</v>
+        <v>289.3025464452904</v>
       </c>
       <c r="AB18" t="n">
-        <v>363.4512507854054</v>
+        <v>395.8365071740201</v>
       </c>
       <c r="AC18" t="n">
-        <v>328.7639735174797</v>
+        <v>358.0584264893579</v>
       </c>
       <c r="AD18" t="n">
-        <v>265633.3371361273</v>
+        <v>289302.5464452904</v>
       </c>
       <c r="AE18" t="n">
-        <v>363451.2507854053</v>
+        <v>395836.5071740202</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.706239842790118e-06</v>
+        <v>7.007623641949938e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.203125</v>
       </c>
       <c r="AH18" t="n">
-        <v>328763.9735174797</v>
+        <v>358058.426489358</v>
       </c>
     </row>
     <row r="19">
@@ -16892,28 +16892,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>262.7525771921184</v>
+        <v>286.4217865012815</v>
       </c>
       <c r="AB19" t="n">
-        <v>359.5096679398532</v>
+        <v>391.8949243284682</v>
       </c>
       <c r="AC19" t="n">
-        <v>325.1985698066608</v>
+        <v>354.4930227785392</v>
       </c>
       <c r="AD19" t="n">
-        <v>262752.5771921184</v>
+        <v>286421.7865012815</v>
       </c>
       <c r="AE19" t="n">
-        <v>359509.6679398532</v>
+        <v>391894.9243284682</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.714914307536571e-06</v>
+        <v>7.02402500473728e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.19375</v>
       </c>
       <c r="AH19" t="n">
-        <v>325198.5698066608</v>
+        <v>354493.0227785392</v>
       </c>
     </row>
     <row r="20">
@@ -16998,28 +16998,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>259.9791055315195</v>
+        <v>283.6483148406826</v>
       </c>
       <c r="AB20" t="n">
-        <v>355.7148816568877</v>
+        <v>388.1001380455026</v>
       </c>
       <c r="AC20" t="n">
-        <v>321.7659526005255</v>
+        <v>351.0604055724038</v>
       </c>
       <c r="AD20" t="n">
-        <v>259979.1055315195</v>
+        <v>283648.3148406827</v>
       </c>
       <c r="AE20" t="n">
-        <v>355714.8816568877</v>
+        <v>388100.1380455026</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.721494935964913e-06</v>
+        <v>7.036467417886297e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.186458333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>321765.9526005255</v>
+        <v>351060.4055724038</v>
       </c>
     </row>
     <row r="21">
@@ -17104,28 +17104,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>258.7690872606374</v>
+        <v>282.4382965698005</v>
       </c>
       <c r="AB21" t="n">
-        <v>354.0592812764281</v>
+        <v>386.444537665043</v>
       </c>
       <c r="AC21" t="n">
-        <v>320.2683603967273</v>
+        <v>349.5628133686056</v>
       </c>
       <c r="AD21" t="n">
-        <v>258769.0872606374</v>
+        <v>282438.2965698005</v>
       </c>
       <c r="AE21" t="n">
-        <v>354059.2812764281</v>
+        <v>386444.537665043</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.727327765708217e-06</v>
+        <v>7.047495920450198e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.179166666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>320268.3603967273</v>
+        <v>349562.8133686056</v>
       </c>
     </row>
     <row r="22">
@@ -17210,28 +17210,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>257.2954384896493</v>
+        <v>280.9646477988156</v>
       </c>
       <c r="AB22" t="n">
-        <v>352.0429700150004</v>
+        <v>384.4282264037861</v>
       </c>
       <c r="AC22" t="n">
-        <v>318.4444830522855</v>
+        <v>347.7389360242125</v>
       </c>
       <c r="AD22" t="n">
-        <v>257295.4384896493</v>
+        <v>280964.6477988156</v>
       </c>
       <c r="AE22" t="n">
-        <v>352042.9700150004</v>
+        <v>384428.2264037861</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.735403991506638e-06</v>
+        <v>7.062766154769446e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.170833333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>318444.4830522855</v>
+        <v>347738.9360242125</v>
       </c>
     </row>
     <row r="23">
@@ -17316,28 +17316,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>258.2759759992303</v>
+        <v>281.9451853083934</v>
       </c>
       <c r="AB23" t="n">
-        <v>353.3845846940375</v>
+        <v>385.7698410826523</v>
       </c>
       <c r="AC23" t="n">
-        <v>319.6580559092174</v>
+        <v>348.9525088810958</v>
       </c>
       <c r="AD23" t="n">
-        <v>258275.9759992303</v>
+        <v>281945.1853083934</v>
       </c>
       <c r="AE23" t="n">
-        <v>353384.5846940375</v>
+        <v>385769.8410826523</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.73525443176963e-06</v>
+        <v>7.062483372652424e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.170833333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>319658.0559092174</v>
+        <v>348952.5088810957</v>
       </c>
     </row>
   </sheetData>
@@ -17613,28 +17613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.2568876609284</v>
+        <v>233.8561551390767</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.1557260443169</v>
+        <v>319.9723084665625</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.1773549973794</v>
+        <v>289.4346004305643</v>
       </c>
       <c r="AD2" t="n">
-        <v>214256.8876609284</v>
+        <v>233856.1551390768</v>
       </c>
       <c r="AE2" t="n">
-        <v>293155.7260443169</v>
+        <v>319972.3084665625</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.655800616197979e-06</v>
+        <v>8.381166930687255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>265177.3549973794</v>
+        <v>289434.6004305643</v>
       </c>
     </row>
     <row r="3">
@@ -17719,28 +17719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.5638402227182</v>
+        <v>181.0777668462949</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.0587738862066</v>
+        <v>247.7585891862547</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.9612347645083</v>
+        <v>224.1128571657544</v>
       </c>
       <c r="AD3" t="n">
-        <v>161563.8402227182</v>
+        <v>181077.7668462949</v>
       </c>
       <c r="AE3" t="n">
-        <v>221058.7738862066</v>
+        <v>247758.5891862547</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.213164783583071e-06</v>
+        <v>9.65896148746376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.425</v>
       </c>
       <c r="AH3" t="n">
-        <v>199961.2347645083</v>
+        <v>224112.8571657544</v>
       </c>
     </row>
     <row r="4">
@@ -17825,28 +17825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.0755430710662</v>
+        <v>176.5894696946429</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.9176877136239</v>
+        <v>241.6175030136719</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.4062452371663</v>
+        <v>218.5578676384124</v>
       </c>
       <c r="AD4" t="n">
-        <v>157075.5430710662</v>
+        <v>176589.4696946429</v>
       </c>
       <c r="AE4" t="n">
-        <v>214917.6877136239</v>
+        <v>241617.5030136719</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.279926772804214e-06</v>
+        <v>9.812017803994793e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.35625</v>
       </c>
       <c r="AH4" t="n">
-        <v>194406.2452371663</v>
+        <v>218557.8676384124</v>
       </c>
     </row>
   </sheetData>
@@ -18122,28 +18122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>700.9701053312315</v>
+        <v>757.7758769553732</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.0982227326888</v>
+        <v>1036.822385562612</v>
       </c>
       <c r="AC2" t="n">
-        <v>867.5632344578903</v>
+        <v>937.8695122738733</v>
       </c>
       <c r="AD2" t="n">
-        <v>700970.1053312315</v>
+        <v>757775.8769553732</v>
       </c>
       <c r="AE2" t="n">
-        <v>959098.2227326888</v>
+        <v>1036822.385562612</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.038624482322622e-06</v>
+        <v>3.995675811696174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.944791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>867563.2344578903</v>
+        <v>937869.5122738733</v>
       </c>
     </row>
     <row r="3">
@@ -18228,28 +18228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.3521431635019</v>
+        <v>409.3674229628807</v>
       </c>
       <c r="AB3" t="n">
-        <v>513.573361644159</v>
+        <v>560.1145681139035</v>
       </c>
       <c r="AC3" t="n">
-        <v>464.55864081358</v>
+        <v>506.6580198588455</v>
       </c>
       <c r="AD3" t="n">
-        <v>375352.1431635019</v>
+        <v>409367.4229628807</v>
       </c>
       <c r="AE3" t="n">
-        <v>513573.3616441591</v>
+        <v>560114.5681139035</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.990531970750591e-06</v>
+        <v>5.861401333716155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>464558.64081358</v>
+        <v>506658.0198588455</v>
       </c>
     </row>
     <row r="4">
@@ -18334,28 +18334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.6256437235785</v>
+        <v>344.7261748689779</v>
       </c>
       <c r="AB4" t="n">
-        <v>425.011709578834</v>
+        <v>471.6695607012276</v>
       </c>
       <c r="AC4" t="n">
-        <v>384.4491885243102</v>
+        <v>426.6540798202879</v>
       </c>
       <c r="AD4" t="n">
-        <v>310625.6437235785</v>
+        <v>344726.1748689779</v>
       </c>
       <c r="AE4" t="n">
-        <v>425011.709578834</v>
+        <v>471669.5607012276</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.325767603721957e-06</v>
+        <v>6.518458541405649e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>384449.1885243102</v>
+        <v>426654.0798202879</v>
       </c>
     </row>
     <row r="5">
@@ -18440,28 +18440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>287.4953250164996</v>
+        <v>321.595856161899</v>
       </c>
       <c r="AB5" t="n">
-        <v>393.3637870861662</v>
+        <v>440.0216382085598</v>
       </c>
       <c r="AC5" t="n">
-        <v>355.8216993362044</v>
+        <v>398.0265906321821</v>
       </c>
       <c r="AD5" t="n">
-        <v>287495.3250164996</v>
+        <v>321595.8561618989</v>
       </c>
       <c r="AE5" t="n">
-        <v>393363.7870861662</v>
+        <v>440021.6382085598</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.498827557106525e-06</v>
+        <v>6.857653658362239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.629166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>355821.6993362044</v>
+        <v>398026.5906321821</v>
       </c>
     </row>
     <row r="6">
@@ -18546,28 +18546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>273.9924702604238</v>
+        <v>296.6978002477173</v>
       </c>
       <c r="AB6" t="n">
-        <v>374.8885855049941</v>
+        <v>405.9550196820724</v>
       </c>
       <c r="AC6" t="n">
-        <v>339.1097450638311</v>
+        <v>367.2112423650632</v>
       </c>
       <c r="AD6" t="n">
-        <v>273992.4702604238</v>
+        <v>296697.8002477173</v>
       </c>
       <c r="AE6" t="n">
-        <v>374888.5855049941</v>
+        <v>405955.0196820724</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.605337950699004e-06</v>
+        <v>7.066412557836869e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.492708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>339109.7450638311</v>
+        <v>367211.2423650632</v>
       </c>
     </row>
     <row r="7">
@@ -18652,28 +18652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>265.0378855515144</v>
+        <v>287.7432155388078</v>
       </c>
       <c r="AB7" t="n">
-        <v>362.636527657868</v>
+        <v>393.7029618349462</v>
       </c>
       <c r="AC7" t="n">
-        <v>328.0270064217635</v>
+        <v>356.1285037229956</v>
       </c>
       <c r="AD7" t="n">
-        <v>265037.8855515144</v>
+        <v>287743.2155388078</v>
       </c>
       <c r="AE7" t="n">
-        <v>362636.527657868</v>
+        <v>393702.9618349462</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.673442406747918e-06</v>
+        <v>7.199896350493639e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.409375</v>
       </c>
       <c r="AH7" t="n">
-        <v>328027.0064217634</v>
+        <v>356128.5037229956</v>
       </c>
     </row>
     <row r="8">
@@ -18758,28 +18758,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>258.1343602461815</v>
+        <v>280.8396902334749</v>
       </c>
       <c r="AB8" t="n">
-        <v>353.1908197730702</v>
+        <v>384.2572539501484</v>
       </c>
       <c r="AC8" t="n">
-        <v>319.4827836403564</v>
+        <v>347.5842809415885</v>
       </c>
       <c r="AD8" t="n">
-        <v>258134.3602461815</v>
+        <v>280839.6902334749</v>
       </c>
       <c r="AE8" t="n">
-        <v>353190.8197730702</v>
+        <v>384257.2539501484</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.724909472848809e-06</v>
+        <v>7.300771088779921e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.347916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>319482.7836403564</v>
+        <v>347584.2809415885</v>
       </c>
     </row>
     <row r="9">
@@ -18864,28 +18864,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>252.0968789312798</v>
+        <v>274.8022089185764</v>
       </c>
       <c r="AB9" t="n">
-        <v>344.9300714829814</v>
+        <v>375.9965056602269</v>
       </c>
       <c r="AC9" t="n">
-        <v>312.0104295731443</v>
+        <v>340.1119268744241</v>
       </c>
       <c r="AD9" t="n">
-        <v>252096.8789312798</v>
+        <v>274802.2089185764</v>
       </c>
       <c r="AE9" t="n">
-        <v>344930.0714829814</v>
+        <v>375996.5056602269</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.767047161408754e-06</v>
+        <v>7.383360376017329e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AH9" t="n">
-        <v>312010.4295731444</v>
+        <v>340111.9268744241</v>
       </c>
     </row>
     <row r="10">
@@ -18970,28 +18970,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>246.7358991662822</v>
+        <v>269.4412291535787</v>
       </c>
       <c r="AB10" t="n">
-        <v>337.5949424587801</v>
+        <v>368.6613766360218</v>
       </c>
       <c r="AC10" t="n">
-        <v>305.3753549680923</v>
+        <v>333.4768522693709</v>
       </c>
       <c r="AD10" t="n">
-        <v>246735.8991662822</v>
+        <v>269441.2291535787</v>
       </c>
       <c r="AE10" t="n">
-        <v>337594.9424587801</v>
+        <v>368661.3766360218</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.800477430930481e-06</v>
+        <v>7.44888324227579e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.261458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>305375.3549680923</v>
+        <v>333476.8522693709</v>
       </c>
     </row>
     <row r="11">
@@ -19076,28 +19076,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>242.3610113130564</v>
+        <v>265.0663413003528</v>
       </c>
       <c r="AB11" t="n">
-        <v>331.6090278915693</v>
+        <v>362.6754620688079</v>
       </c>
       <c r="AC11" t="n">
-        <v>299.9607276858903</v>
+        <v>328.062224987168</v>
       </c>
       <c r="AD11" t="n">
-        <v>242361.0113130564</v>
+        <v>265066.3413003528</v>
       </c>
       <c r="AE11" t="n">
-        <v>331609.0278915692</v>
+        <v>362675.4620688079</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.822556957777389e-06</v>
+        <v>7.492158809758122e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.2375</v>
       </c>
       <c r="AH11" t="n">
-        <v>299960.7276858903</v>
+        <v>328062.224987168</v>
       </c>
     </row>
     <row r="12">
@@ -19182,28 +19182,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>238.5546178595262</v>
+        <v>261.2599478468227</v>
       </c>
       <c r="AB12" t="n">
-        <v>326.4009524422244</v>
+        <v>357.4673866194603</v>
       </c>
       <c r="AC12" t="n">
-        <v>295.2497036478494</v>
+        <v>323.3512009491264</v>
       </c>
       <c r="AD12" t="n">
-        <v>238554.6178595262</v>
+        <v>261259.9478468227</v>
       </c>
       <c r="AE12" t="n">
-        <v>326400.9524422244</v>
+        <v>357467.3866194603</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.84168218173633e-06</v>
+        <v>7.529643984408311e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.215625</v>
       </c>
       <c r="AH12" t="n">
-        <v>295249.7036478494</v>
+        <v>323351.2009491264</v>
       </c>
     </row>
     <row r="13">
@@ -19288,28 +19288,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>234.2415643673602</v>
+        <v>256.9468943546533</v>
       </c>
       <c r="AB13" t="n">
-        <v>320.4996423757548</v>
+        <v>351.5660765528171</v>
       </c>
       <c r="AC13" t="n">
-        <v>289.9116063315811</v>
+        <v>318.0131036328087</v>
       </c>
       <c r="AD13" t="n">
-        <v>234241.5643673601</v>
+        <v>256946.8943546533</v>
       </c>
       <c r="AE13" t="n">
-        <v>320499.6423757548</v>
+        <v>351566.0765528171</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.863761708583239e-06</v>
+        <v>7.572919551890644e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.191666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>289911.6063315811</v>
+        <v>318013.1036328087</v>
       </c>
     </row>
     <row r="14">
@@ -19394,28 +19394,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>230.6391462074654</v>
+        <v>253.3444761947585</v>
       </c>
       <c r="AB14" t="n">
-        <v>315.5706549219166</v>
+        <v>346.6370890989788</v>
       </c>
       <c r="AC14" t="n">
-        <v>285.4530345224583</v>
+        <v>313.5545318236858</v>
       </c>
       <c r="AD14" t="n">
-        <v>230639.1462074654</v>
+        <v>253344.4761947585</v>
       </c>
       <c r="AE14" t="n">
-        <v>315570.6549219165</v>
+        <v>346637.0890989788</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.879777140028532e-06</v>
+        <v>7.604309576191209e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.175</v>
       </c>
       <c r="AH14" t="n">
-        <v>285453.0345224583</v>
+        <v>313554.5318236858</v>
       </c>
     </row>
     <row r="15">
@@ -19500,28 +19500,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>231.0169296793368</v>
+        <v>253.7222596666299</v>
       </c>
       <c r="AB15" t="n">
-        <v>316.0875549347613</v>
+        <v>347.1539891118235</v>
       </c>
       <c r="AC15" t="n">
-        <v>285.920602323551</v>
+        <v>314.0220996247784</v>
       </c>
       <c r="AD15" t="n">
-        <v>231016.9296793368</v>
+        <v>253722.2596666299</v>
       </c>
       <c r="AE15" t="n">
-        <v>316087.5549347613</v>
+        <v>347153.9891118235</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.875112451258058e-06</v>
+        <v>7.595166850666772e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.179166666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>285920.602323551</v>
+        <v>314022.0996247784</v>
       </c>
     </row>
     <row r="16">
@@ -19606,28 +19606,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>231.8657374595745</v>
+        <v>254.5710674468676</v>
       </c>
       <c r="AB16" t="n">
-        <v>317.2489311864384</v>
+        <v>348.3153653635007</v>
       </c>
       <c r="AC16" t="n">
-        <v>286.9711384557702</v>
+        <v>315.0726357569977</v>
       </c>
       <c r="AD16" t="n">
-        <v>231865.7374595745</v>
+        <v>254571.0674468676</v>
       </c>
       <c r="AE16" t="n">
-        <v>317248.9311864384</v>
+        <v>348315.3653635007</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.87464598238101e-06</v>
+        <v>7.594252578114327e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.180208333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>286971.1384557702</v>
+        <v>315072.6357569977</v>
       </c>
     </row>
   </sheetData>
@@ -19903,28 +19903,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>881.5993862916187</v>
+        <v>939.74343176707</v>
       </c>
       <c r="AB2" t="n">
-        <v>1206.243173744157</v>
+        <v>1285.798421897917</v>
       </c>
       <c r="AC2" t="n">
-        <v>1091.121018214941</v>
+        <v>1163.083625141398</v>
       </c>
       <c r="AD2" t="n">
-        <v>881599.3862916187</v>
+        <v>939743.43176707</v>
       </c>
       <c r="AE2" t="n">
-        <v>1206243.173744157</v>
+        <v>1285798.421897918</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.80182990906811e-06</v>
+        <v>3.464383918031778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.807291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1091121.018214941</v>
+        <v>1163083.625141399</v>
       </c>
     </row>
     <row r="3">
@@ -20009,28 +20009,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>421.6132045865918</v>
+        <v>456.5508363846055</v>
       </c>
       <c r="AB3" t="n">
-        <v>576.8697867772216</v>
+        <v>624.6729959427967</v>
       </c>
       <c r="AC3" t="n">
-        <v>521.8141439690337</v>
+        <v>565.0550819440716</v>
       </c>
       <c r="AD3" t="n">
-        <v>421613.2045865918</v>
+        <v>456550.8363846056</v>
       </c>
       <c r="AE3" t="n">
-        <v>576869.7867772216</v>
+        <v>624672.9959427967</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.811902818269223e-06</v>
+        <v>5.406454212827641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.64375</v>
       </c>
       <c r="AH3" t="n">
-        <v>521814.1439690337</v>
+        <v>565055.0819440716</v>
       </c>
     </row>
     <row r="4">
@@ -20115,28 +20115,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.7505199877752</v>
+        <v>378.0423640283354</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.3853119356608</v>
+        <v>517.2542405155925</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.0608190070845</v>
+        <v>467.8882217716697</v>
       </c>
       <c r="AD4" t="n">
-        <v>354750.5199877752</v>
+        <v>378042.3640283354</v>
       </c>
       <c r="AE4" t="n">
-        <v>485385.3119356608</v>
+        <v>517254.2405155925</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.171141418555231e-06</v>
+        <v>6.097163376497121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.004166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>439060.8190070845</v>
+        <v>467888.2217716697</v>
       </c>
     </row>
     <row r="5">
@@ -20221,28 +20221,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.8051532248596</v>
+        <v>350.6574441683017</v>
       </c>
       <c r="AB5" t="n">
-        <v>432.0985429823189</v>
+        <v>479.7849850256962</v>
       </c>
       <c r="AC5" t="n">
-        <v>390.8596644941997</v>
+        <v>433.9949794372989</v>
       </c>
       <c r="AD5" t="n">
-        <v>315805.1532248596</v>
+        <v>350657.4441683017</v>
       </c>
       <c r="AE5" t="n">
-        <v>432098.5429823189</v>
+        <v>479784.9850256962</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.353045951524481e-06</v>
+        <v>6.446911782528231e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>390859.6644941997</v>
+        <v>433994.9794372988</v>
       </c>
     </row>
     <row r="6">
@@ -20327,28 +20327,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>299.5179828294275</v>
+        <v>322.8950782160082</v>
       </c>
       <c r="AB6" t="n">
-        <v>409.8137179080429</v>
+        <v>441.7992911406239</v>
       </c>
       <c r="AC6" t="n">
-        <v>370.7016718480642</v>
+        <v>399.6345868633616</v>
       </c>
       <c r="AD6" t="n">
-        <v>299517.9828294275</v>
+        <v>322895.0782160083</v>
       </c>
       <c r="AE6" t="n">
-        <v>409813.7179080429</v>
+        <v>441799.2911406239</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.471116314213902e-06</v>
+        <v>6.673926032674053e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.571874999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>370701.6718480642</v>
+        <v>399634.5868633616</v>
       </c>
     </row>
     <row r="7">
@@ -20433,28 +20433,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>289.1777084371261</v>
+        <v>312.3842116231147</v>
       </c>
       <c r="AB7" t="n">
-        <v>395.6656983037855</v>
+        <v>427.4178597615195</v>
       </c>
       <c r="AC7" t="n">
-        <v>357.9039193779666</v>
+        <v>386.6256991106131</v>
       </c>
       <c r="AD7" t="n">
-        <v>289177.7084371261</v>
+        <v>312384.2116231147</v>
       </c>
       <c r="AE7" t="n">
-        <v>395665.6983037855</v>
+        <v>427417.8597615195</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.546681346335131e-06</v>
+        <v>6.819215152767378e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.475000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>357903.9193779667</v>
+        <v>386625.6991106131</v>
       </c>
     </row>
     <row r="8">
@@ -20539,28 +20539,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>280.9139124671541</v>
+        <v>304.1204156531427</v>
       </c>
       <c r="AB8" t="n">
-        <v>384.3588080847219</v>
+        <v>416.110969542456</v>
       </c>
       <c r="AC8" t="n">
-        <v>347.6761428920906</v>
+        <v>376.3979226247369</v>
       </c>
       <c r="AD8" t="n">
-        <v>280913.9124671542</v>
+        <v>304120.4156531427</v>
       </c>
       <c r="AE8" t="n">
-        <v>384358.808084722</v>
+        <v>416110.969542456</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.606249748672633e-06</v>
+        <v>6.933747503486109e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>347676.1428920906</v>
+        <v>376397.9226247369</v>
       </c>
     </row>
     <row r="9">
@@ -20645,28 +20645,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>275.475114832983</v>
+        <v>298.6816180189716</v>
       </c>
       <c r="AB9" t="n">
-        <v>376.9172052188317</v>
+        <v>408.6693666765657</v>
       </c>
       <c r="AC9" t="n">
-        <v>340.9447561593656</v>
+        <v>369.6665358920121</v>
       </c>
       <c r="AD9" t="n">
-        <v>275475.1148329829</v>
+        <v>298681.6180189716</v>
       </c>
       <c r="AE9" t="n">
-        <v>376917.2052188317</v>
+        <v>408669.3666765657</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.643879915878165e-06</v>
+        <v>7.006099141919679e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.355208333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>340944.7561593656</v>
+        <v>369666.5358920121</v>
       </c>
     </row>
     <row r="10">
@@ -20751,28 +20751,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>270.2410307860234</v>
+        <v>293.447533972012</v>
       </c>
       <c r="AB10" t="n">
-        <v>369.7557005142904</v>
+        <v>401.5078619720246</v>
       </c>
       <c r="AC10" t="n">
-        <v>334.4667354125908</v>
+        <v>363.1885151452372</v>
       </c>
       <c r="AD10" t="n">
-        <v>270241.0307860234</v>
+        <v>293447.533972012</v>
       </c>
       <c r="AE10" t="n">
-        <v>369755.7005142904</v>
+        <v>401507.8619720245</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.678006059416785e-06</v>
+        <v>7.07171358325215e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.314583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>334466.7354125908</v>
+        <v>363188.5151452372</v>
       </c>
     </row>
     <row r="11">
@@ -20857,28 +20857,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>266.0134778899129</v>
+        <v>289.2199810759015</v>
       </c>
       <c r="AB11" t="n">
-        <v>363.9713761353612</v>
+        <v>395.7235375930952</v>
       </c>
       <c r="AC11" t="n">
-        <v>329.2344588340363</v>
+        <v>357.9562385666828</v>
       </c>
       <c r="AD11" t="n">
-        <v>266013.4778899129</v>
+        <v>289219.9810759015</v>
       </c>
       <c r="AE11" t="n">
-        <v>363971.3761353612</v>
+        <v>395723.5375930952</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.703295969360583e-06</v>
+        <v>7.120338571025319e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.285416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>329234.4588340363</v>
+        <v>357956.2385666828</v>
       </c>
     </row>
     <row r="12">
@@ -20963,28 +20963,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>261.6767080564446</v>
+        <v>284.8832112424332</v>
       </c>
       <c r="AB12" t="n">
-        <v>358.0376163244279</v>
+        <v>389.7897777821619</v>
       </c>
       <c r="AC12" t="n">
-        <v>323.8670087313743</v>
+        <v>352.5887884640207</v>
       </c>
       <c r="AD12" t="n">
-        <v>261676.7080564446</v>
+        <v>284883.2112424332</v>
       </c>
       <c r="AE12" t="n">
-        <v>358037.6163244279</v>
+        <v>389789.777782162</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.726452995333219e-06</v>
+        <v>7.16486265621521e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.258333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>323867.0087313743</v>
+        <v>352588.7884640207</v>
       </c>
     </row>
     <row r="13">
@@ -21069,28 +21069,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>257.7131001566468</v>
+        <v>280.9196033426385</v>
       </c>
       <c r="AB13" t="n">
-        <v>352.6144331337183</v>
+        <v>384.3665945916234</v>
       </c>
       <c r="AC13" t="n">
-        <v>318.9614065330067</v>
+        <v>347.6831862657017</v>
       </c>
       <c r="AD13" t="n">
-        <v>257713.1001566467</v>
+        <v>280919.6033426385</v>
       </c>
       <c r="AE13" t="n">
-        <v>352614.4331337183</v>
+        <v>384366.5945916234</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.748543579320272e-06</v>
+        <v>7.20733629011346e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.233333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>318961.4065330067</v>
+        <v>347683.1862657018</v>
       </c>
     </row>
     <row r="14">
@@ -21175,28 +21175,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>254.6158045989088</v>
+        <v>277.8223077849005</v>
       </c>
       <c r="AB14" t="n">
-        <v>348.376576708587</v>
+        <v>380.1287381664901</v>
       </c>
       <c r="AC14" t="n">
-        <v>315.1280051772198</v>
+        <v>343.8497849099143</v>
       </c>
       <c r="AD14" t="n">
-        <v>254615.8045989088</v>
+        <v>277822.3077849005</v>
       </c>
       <c r="AE14" t="n">
-        <v>348376.5767085871</v>
+        <v>380128.7381664901</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.763016720553168e-06</v>
+        <v>7.235163843357141e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.217708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>315128.0051772199</v>
+        <v>343849.7849099143</v>
       </c>
     </row>
     <row r="15">
@@ -21281,28 +21281,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>251.4762370884535</v>
+        <v>274.6827402744452</v>
       </c>
       <c r="AB15" t="n">
-        <v>344.0808819328411</v>
+        <v>375.8330433907419</v>
       </c>
       <c r="AC15" t="n">
-        <v>311.2422854818243</v>
+        <v>339.9640652145181</v>
       </c>
       <c r="AD15" t="n">
-        <v>251476.2370884535</v>
+        <v>274682.7402744452</v>
       </c>
       <c r="AE15" t="n">
-        <v>344080.8819328411</v>
+        <v>375833.0433907419</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.775966373235234e-06</v>
+        <v>7.260062180469908e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.203125</v>
       </c>
       <c r="AH15" t="n">
-        <v>311242.2854818243</v>
+        <v>339964.0652145181</v>
       </c>
     </row>
     <row r="16">
@@ -21387,28 +21387,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>248.1548141551946</v>
+        <v>271.3613173411863</v>
       </c>
       <c r="AB16" t="n">
-        <v>339.5363645447205</v>
+        <v>371.2885260026189</v>
       </c>
       <c r="AC16" t="n">
-        <v>307.1314904549541</v>
+        <v>335.8532701876473</v>
       </c>
       <c r="AD16" t="n">
-        <v>248154.8141551946</v>
+        <v>271361.3173411863</v>
       </c>
       <c r="AE16" t="n">
-        <v>339536.3645447204</v>
+        <v>371288.5260026189</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.782212676293642e-06</v>
+        <v>7.272071966606656e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.195833333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>307131.4904549541</v>
+        <v>335853.2701876473</v>
       </c>
     </row>
     <row r="17">
@@ -21493,28 +21493,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>245.5651275629895</v>
+        <v>268.7716307489812</v>
       </c>
       <c r="AB17" t="n">
-        <v>335.9930411003581</v>
+        <v>367.7452025582547</v>
       </c>
       <c r="AC17" t="n">
-        <v>303.926336827035</v>
+        <v>332.6481165597276</v>
       </c>
       <c r="AD17" t="n">
-        <v>245565.1275629895</v>
+        <v>268771.6307489812</v>
       </c>
       <c r="AE17" t="n">
-        <v>335993.0411003581</v>
+        <v>367745.2025582547</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.797599910657038e-06</v>
+        <v>7.301657049528885e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.179166666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>303926.3368270349</v>
+        <v>332648.1165597276</v>
       </c>
     </row>
     <row r="18">
@@ -21599,28 +21599,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>243.6948012068906</v>
+        <v>266.9013043928821</v>
       </c>
       <c r="AB18" t="n">
-        <v>333.4339780669694</v>
+        <v>365.1861395248648</v>
       </c>
       <c r="AC18" t="n">
-        <v>301.6115071778844</v>
+        <v>330.3332869105768</v>
       </c>
       <c r="AD18" t="n">
-        <v>243694.8012068906</v>
+        <v>266901.3043928822</v>
       </c>
       <c r="AE18" t="n">
-        <v>333433.9780669694</v>
+        <v>365186.1395248647</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.80506500455611e-06</v>
+        <v>7.316010208570362e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.170833333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>301611.5071778845</v>
+        <v>330333.2869105767</v>
       </c>
     </row>
     <row r="19">
@@ -21705,28 +21705,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>244.457462484545</v>
+        <v>267.6639656705366</v>
       </c>
       <c r="AB19" t="n">
-        <v>334.4774848732966</v>
+        <v>366.2296463311924</v>
       </c>
       <c r="AC19" t="n">
-        <v>302.5554231591872</v>
+        <v>331.2772028918796</v>
       </c>
       <c r="AD19" t="n">
-        <v>244457.462484545</v>
+        <v>267663.9656705366</v>
       </c>
       <c r="AE19" t="n">
-        <v>334477.4848732966</v>
+        <v>366229.6463311925</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.805369702266276e-06</v>
+        <v>7.316596051796544e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.170833333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>302555.4231591872</v>
+        <v>331277.2028918796</v>
       </c>
     </row>
   </sheetData>
@@ -22002,28 +22002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1423.314906094845</v>
+        <v>1483.779272800244</v>
       </c>
       <c r="AB2" t="n">
-        <v>1947.442246740971</v>
+        <v>2030.172260766894</v>
       </c>
       <c r="AC2" t="n">
-        <v>1761.581091964372</v>
+        <v>1836.415469563965</v>
       </c>
       <c r="AD2" t="n">
-        <v>1423314.906094845</v>
+        <v>1483779.272800244</v>
       </c>
       <c r="AE2" t="n">
-        <v>1947442.246740971</v>
+        <v>2030172.260766894</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.386981569058774e-06</v>
+        <v>2.583841465564002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1761581.091964372</v>
+        <v>1836415.469563965</v>
       </c>
     </row>
     <row r="3">
@@ -22108,28 +22108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>539.0164855501229</v>
+        <v>575.209800522211</v>
       </c>
       <c r="AB3" t="n">
-        <v>737.5061352587326</v>
+        <v>787.0274255399079</v>
       </c>
       <c r="AC3" t="n">
-        <v>667.1195848060003</v>
+        <v>711.9146326463077</v>
       </c>
       <c r="AD3" t="n">
-        <v>539016.4855501229</v>
+        <v>575209.800522211</v>
       </c>
       <c r="AE3" t="n">
-        <v>737506.1352587326</v>
+        <v>787027.4255399079</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.485743897727896e-06</v>
+        <v>4.630752346680862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.162499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>667119.5848060002</v>
+        <v>711914.6326463077</v>
       </c>
     </row>
     <row r="4">
@@ -22214,28 +22214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>424.7136784973682</v>
+        <v>460.8216526148847</v>
       </c>
       <c r="AB4" t="n">
-        <v>581.1119919652012</v>
+        <v>630.5165151241789</v>
       </c>
       <c r="AC4" t="n">
-        <v>525.6514790478449</v>
+        <v>570.3409038562135</v>
       </c>
       <c r="AD4" t="n">
-        <v>424713.6784973682</v>
+        <v>460821.6526148847</v>
       </c>
       <c r="AE4" t="n">
-        <v>581111.9919652012</v>
+        <v>630516.515124179</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.887486226679187e-06</v>
+        <v>5.379167834798001e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.305208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>525651.4790478449</v>
+        <v>570340.9038562134</v>
       </c>
     </row>
     <row r="5">
@@ -22320,28 +22320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.0310733564387</v>
+        <v>409.2242988199757</v>
       </c>
       <c r="AB5" t="n">
-        <v>510.3975715357624</v>
+        <v>559.9187393473894</v>
       </c>
       <c r="AC5" t="n">
-        <v>461.6859436558792</v>
+        <v>506.4808807149601</v>
       </c>
       <c r="AD5" t="n">
-        <v>373031.0733564387</v>
+        <v>409224.2988199758</v>
       </c>
       <c r="AE5" t="n">
-        <v>510397.5715357624</v>
+        <v>559918.7393473894</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.096445175961685e-06</v>
+        <v>5.768442508522179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.946875</v>
       </c>
       <c r="AH5" t="n">
-        <v>461685.9436558792</v>
+        <v>506480.8807149601</v>
       </c>
     </row>
     <row r="6">
@@ -22426,28 +22426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>350.8665876484445</v>
+        <v>387.0598131119815</v>
       </c>
       <c r="AB6" t="n">
-        <v>480.0711443619868</v>
+        <v>529.5923121736138</v>
       </c>
       <c r="AC6" t="n">
-        <v>434.2538281281609</v>
+        <v>479.0487651872418</v>
       </c>
       <c r="AD6" t="n">
-        <v>350866.5876484445</v>
+        <v>387059.8131119815</v>
       </c>
       <c r="AE6" t="n">
-        <v>480071.1443619868</v>
+        <v>529592.3121736138</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.229525998692621e-06</v>
+        <v>6.016361987565375e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.742708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>434253.8281281609</v>
+        <v>479048.7651872418</v>
       </c>
     </row>
     <row r="7">
@@ -22532,28 +22532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>337.343640366014</v>
+        <v>361.6146920993247</v>
       </c>
       <c r="AB7" t="n">
-        <v>461.5684512998365</v>
+        <v>494.7771750445841</v>
       </c>
       <c r="AC7" t="n">
-        <v>417.5170061231694</v>
+        <v>447.5563358824548</v>
       </c>
       <c r="AD7" t="n">
-        <v>337343.640366014</v>
+        <v>361614.6920993247</v>
       </c>
       <c r="AE7" t="n">
-        <v>461568.4512998365</v>
+        <v>494777.1750445841</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.315991770809516e-06</v>
+        <v>6.177441162899517e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.61875</v>
       </c>
       <c r="AH7" t="n">
-        <v>417517.0061231694</v>
+        <v>447556.3358824548</v>
       </c>
     </row>
     <row r="8">
@@ -22638,28 +22638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>327.6888197131397</v>
+        <v>351.9598714464504</v>
       </c>
       <c r="AB8" t="n">
-        <v>448.3582997419481</v>
+        <v>481.5670234866956</v>
       </c>
       <c r="AC8" t="n">
-        <v>405.5676128894018</v>
+        <v>435.6069426486871</v>
       </c>
       <c r="AD8" t="n">
-        <v>327688.8197131397</v>
+        <v>351959.8714464505</v>
       </c>
       <c r="AE8" t="n">
-        <v>448358.2997419481</v>
+        <v>481567.0234866957</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.378782391037262e-06</v>
+        <v>6.294415325939787e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.533333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>405567.6128894018</v>
+        <v>435606.9426486871</v>
       </c>
     </row>
     <row r="9">
@@ -22744,28 +22744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>319.6219511088295</v>
+        <v>343.722410641548</v>
       </c>
       <c r="AB9" t="n">
-        <v>437.3208542324053</v>
+        <v>470.2961662023058</v>
       </c>
       <c r="AC9" t="n">
-        <v>395.5835656881376</v>
+        <v>425.4117601647719</v>
       </c>
       <c r="AD9" t="n">
-        <v>319621.9511088295</v>
+        <v>343722.410641548</v>
       </c>
       <c r="AE9" t="n">
-        <v>437320.8542324053</v>
+        <v>470296.1662023058</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.432602922661044e-06</v>
+        <v>6.394678894260019e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.4625</v>
       </c>
       <c r="AH9" t="n">
-        <v>395583.5656881376</v>
+        <v>425411.7601647719</v>
       </c>
     </row>
     <row r="10">
@@ -22850,28 +22850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>314.2564474076033</v>
+        <v>338.3569069403218</v>
       </c>
       <c r="AB10" t="n">
-        <v>429.9795353590703</v>
+        <v>462.9548473289708</v>
       </c>
       <c r="AC10" t="n">
-        <v>388.942891984468</v>
+        <v>418.7710864611022</v>
       </c>
       <c r="AD10" t="n">
-        <v>314256.4474076033</v>
+        <v>338356.9069403218</v>
       </c>
       <c r="AE10" t="n">
-        <v>429979.5353590703</v>
+        <v>462954.8473289708</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.465395213787009e-06</v>
+        <v>6.455768445449668e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.419791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>388942.891984468</v>
+        <v>418771.0864611022</v>
       </c>
     </row>
     <row r="11">
@@ -22956,28 +22956,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>309.0221871888395</v>
+        <v>333.1226467215581</v>
       </c>
       <c r="AB11" t="n">
-        <v>422.8177896084944</v>
+        <v>455.7931015783949</v>
       </c>
       <c r="AC11" t="n">
-        <v>382.4646531967538</v>
+        <v>412.2928476733878</v>
       </c>
       <c r="AD11" t="n">
-        <v>309022.1871888395</v>
+        <v>333122.6467215581</v>
       </c>
       <c r="AE11" t="n">
-        <v>422817.7896084944</v>
+        <v>455793.1015783949</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.500540315038605e-06</v>
+        <v>6.521241103451131e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.376041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>382464.6531967538</v>
+        <v>412292.8476733878</v>
       </c>
     </row>
     <row r="12">
@@ -23062,28 +23062,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>304.2941349174329</v>
+        <v>328.3945944501514</v>
       </c>
       <c r="AB12" t="n">
-        <v>416.3486599038109</v>
+        <v>449.3239718737115</v>
       </c>
       <c r="AC12" t="n">
-        <v>376.6129281516046</v>
+        <v>406.441122628239</v>
       </c>
       <c r="AD12" t="n">
-        <v>304294.1349174329</v>
+        <v>328394.5944501514</v>
       </c>
       <c r="AE12" t="n">
-        <v>416348.6599038109</v>
+        <v>449323.9718737114</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.528479935280459e-06</v>
+        <v>6.573290496841416e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.341666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>376612.9281516047</v>
+        <v>406441.122628239</v>
       </c>
     </row>
     <row r="13">
@@ -23168,28 +23168,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>300.6674727817513</v>
+        <v>324.7679323144697</v>
       </c>
       <c r="AB13" t="n">
-        <v>411.3865007727298</v>
+        <v>444.3618127426304</v>
       </c>
       <c r="AC13" t="n">
-        <v>372.1243505235599</v>
+        <v>401.9525450001941</v>
       </c>
       <c r="AD13" t="n">
-        <v>300667.4727817512</v>
+        <v>324767.9323144697</v>
       </c>
       <c r="AE13" t="n">
-        <v>411386.5007727299</v>
+        <v>444361.8127426304</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.550096378309683e-06</v>
+        <v>6.613560290674952e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.314583333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>372124.3505235599</v>
+        <v>401952.5450001941</v>
       </c>
     </row>
     <row r="14">
@@ -23274,28 +23274,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>297.6357173286719</v>
+        <v>321.7361768613903</v>
       </c>
       <c r="AB14" t="n">
-        <v>407.2383192102158</v>
+        <v>440.2136311801164</v>
       </c>
       <c r="AC14" t="n">
-        <v>368.3720655873628</v>
+        <v>398.2002600639971</v>
       </c>
       <c r="AD14" t="n">
-        <v>297635.7173286719</v>
+        <v>321736.1768613904</v>
       </c>
       <c r="AE14" t="n">
-        <v>407238.3192102158</v>
+        <v>440213.6311801163</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.564360289696314e-06</v>
+        <v>6.640132875721571e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.297916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>368372.0655873629</v>
+        <v>398200.2600639971</v>
       </c>
     </row>
     <row r="15">
@@ -23380,28 +23380,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>295.1576977206084</v>
+        <v>319.2581572533269</v>
       </c>
       <c r="AB15" t="n">
-        <v>403.847783459954</v>
+        <v>436.8230954298544</v>
       </c>
       <c r="AC15" t="n">
-        <v>365.3051178104591</v>
+        <v>395.1333122870934</v>
       </c>
       <c r="AD15" t="n">
-        <v>295157.6977206084</v>
+        <v>319258.157253327</v>
       </c>
       <c r="AE15" t="n">
-        <v>403847.783459954</v>
+        <v>436823.0954298545</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.577300745387278e-06</v>
+        <v>6.664239963186544e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.282291666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>365305.1178104591</v>
+        <v>395133.3122870934</v>
       </c>
     </row>
     <row r="16">
@@ -23486,28 +23486,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>291.9888930755293</v>
+        <v>316.089352608248</v>
       </c>
       <c r="AB16" t="n">
-        <v>399.5120851467623</v>
+        <v>432.4873971166628</v>
       </c>
       <c r="AC16" t="n">
-        <v>361.3832124590877</v>
+        <v>391.211406935722</v>
       </c>
       <c r="AD16" t="n">
-        <v>291988.8930755294</v>
+        <v>316089.352608248</v>
       </c>
       <c r="AE16" t="n">
-        <v>399512.0851467623</v>
+        <v>432487.3971166628</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.593035163102427e-06</v>
+        <v>6.693551989990546e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.263541666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>361383.2124590877</v>
+        <v>391211.406935722</v>
       </c>
     </row>
     <row r="17">
@@ -23592,28 +23592,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>288.9335183908067</v>
+        <v>313.0339779235252</v>
       </c>
       <c r="AB17" t="n">
-        <v>395.3315867095068</v>
+        <v>428.3068986794073</v>
       </c>
       <c r="AC17" t="n">
-        <v>357.6016949253175</v>
+        <v>387.4298894019518</v>
       </c>
       <c r="AD17" t="n">
-        <v>288933.5183908067</v>
+        <v>313033.9779235253</v>
       </c>
       <c r="AE17" t="n">
-        <v>395331.5867095068</v>
+        <v>428306.8986794073</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.609945985880391e-06</v>
+        <v>6.725055570200454e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.24375</v>
       </c>
       <c r="AH17" t="n">
-        <v>357601.6949253175</v>
+        <v>387429.8894019518</v>
       </c>
     </row>
     <row r="18">
@@ -23698,28 +23698,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>286.7729294075159</v>
+        <v>310.8733889402345</v>
       </c>
       <c r="AB18" t="n">
-        <v>392.3753735441097</v>
+        <v>425.3506855140101</v>
       </c>
       <c r="AC18" t="n">
-        <v>354.9276185953546</v>
+        <v>384.7558130719889</v>
       </c>
       <c r="AD18" t="n">
-        <v>286772.9294075159</v>
+        <v>310873.3889402344</v>
       </c>
       <c r="AE18" t="n">
-        <v>392375.3735441096</v>
+        <v>425350.6855140101</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.616710314991577e-06</v>
+        <v>6.737657002284418e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.235416666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>354927.6185953546</v>
+        <v>384755.8130719889</v>
       </c>
     </row>
     <row r="19">
@@ -23804,28 +23804,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>284.2680910665433</v>
+        <v>308.3685505992618</v>
       </c>
       <c r="AB19" t="n">
-        <v>388.9481432203224</v>
+        <v>421.9234551902231</v>
       </c>
       <c r="AC19" t="n">
-        <v>351.8274783235217</v>
+        <v>381.6556728001559</v>
       </c>
       <c r="AD19" t="n">
-        <v>284268.0910665433</v>
+        <v>308368.5505992618</v>
       </c>
       <c r="AE19" t="n">
-        <v>388948.1432203224</v>
+        <v>421923.4551902231</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.623033492204207e-06</v>
+        <v>6.749436601841167e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.228125</v>
       </c>
       <c r="AH19" t="n">
-        <v>351827.4783235217</v>
+        <v>381655.6728001559</v>
       </c>
     </row>
     <row r="20">
@@ -23910,28 +23910,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>281.5880514067863</v>
+        <v>305.6885109395049</v>
       </c>
       <c r="AB20" t="n">
-        <v>385.2811947228378</v>
+        <v>418.2565066927384</v>
       </c>
       <c r="AC20" t="n">
-        <v>348.5104982440424</v>
+        <v>378.3386927206766</v>
       </c>
       <c r="AD20" t="n">
-        <v>281588.0514067864</v>
+        <v>305688.5109395048</v>
       </c>
       <c r="AE20" t="n">
-        <v>385281.1947228378</v>
+        <v>418256.5066927384</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.638326758020801e-06</v>
+        <v>6.777926796117955e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.210416666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>348510.4982440424</v>
+        <v>378338.6927206767</v>
       </c>
     </row>
     <row r="21">
@@ -24016,28 +24016,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>279.1113542959123</v>
+        <v>303.2118138286309</v>
       </c>
       <c r="AB21" t="n">
-        <v>381.8924684715749</v>
+        <v>414.8677804414755</v>
       </c>
       <c r="AC21" t="n">
-        <v>345.445187270093</v>
+        <v>375.2733817467272</v>
       </c>
       <c r="AD21" t="n">
-        <v>279111.3542959124</v>
+        <v>303211.8138286308</v>
       </c>
       <c r="AE21" t="n">
-        <v>381892.4684715749</v>
+        <v>414867.7804414755</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.647002745359061e-06</v>
+        <v>6.794089502486516e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="AH21" t="n">
-        <v>345445.187270093</v>
+        <v>375273.3817467272</v>
       </c>
     </row>
     <row r="22">
@@ -24122,28 +24122,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>276.7665870375617</v>
+        <v>300.8670465702802</v>
       </c>
       <c r="AB22" t="n">
-        <v>378.6842544648689</v>
+        <v>411.6595664347694</v>
       </c>
       <c r="AC22" t="n">
-        <v>342.5431607054302</v>
+        <v>372.3713551820645</v>
       </c>
       <c r="AD22" t="n">
-        <v>276766.5870375618</v>
+        <v>300867.0465702802</v>
       </c>
       <c r="AE22" t="n">
-        <v>378684.2544648689</v>
+        <v>411659.5664347694</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.653767074470247e-06</v>
+        <v>6.80669093457048e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>342543.1607054303</v>
+        <v>372371.3551820645</v>
       </c>
     </row>
     <row r="23">
@@ -24228,28 +24228,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>276.0645830043955</v>
+        <v>300.1650425371139</v>
       </c>
       <c r="AB23" t="n">
-        <v>377.7237415764587</v>
+        <v>410.6990535463592</v>
       </c>
       <c r="AC23" t="n">
-        <v>341.6743178190015</v>
+        <v>371.5025122956358</v>
       </c>
       <c r="AD23" t="n">
-        <v>276064.5830043955</v>
+        <v>300165.0425371139</v>
       </c>
       <c r="AE23" t="n">
-        <v>377723.7415764587</v>
+        <v>410699.0535463592</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.651267213711765e-06</v>
+        <v>6.802033883582928e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.194791666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>341674.3178190016</v>
+        <v>371502.5122956358</v>
       </c>
     </row>
     <row r="24">
@@ -24334,28 +24334,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>274.280331441853</v>
+        <v>298.3807909745715</v>
       </c>
       <c r="AB24" t="n">
-        <v>375.2824498729647</v>
+        <v>408.2577618428651</v>
       </c>
       <c r="AC24" t="n">
-        <v>339.4660195693145</v>
+        <v>369.2942140459488</v>
       </c>
       <c r="AD24" t="n">
-        <v>274280.331441853</v>
+        <v>298380.7909745715</v>
       </c>
       <c r="AE24" t="n">
-        <v>375282.4498729646</v>
+        <v>408257.7618428651</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.658913846620061e-06</v>
+        <v>6.816278980721321e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.186458333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>339466.0195693146</v>
+        <v>369294.2140459488</v>
       </c>
     </row>
     <row r="25">
@@ -24440,28 +24440,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>271.9663896880053</v>
+        <v>296.0668492207237</v>
       </c>
       <c r="AB25" t="n">
-        <v>372.1164126814447</v>
+        <v>405.0917246513451</v>
       </c>
       <c r="AC25" t="n">
-        <v>336.6021445237922</v>
+        <v>366.4303390004263</v>
       </c>
       <c r="AD25" t="n">
-        <v>271966.3896880053</v>
+        <v>296066.8492207237</v>
       </c>
       <c r="AE25" t="n">
-        <v>372116.4126814447</v>
+        <v>405091.7246513452</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.666854580794062e-06</v>
+        <v>6.831071966211191e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.177083333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>336602.1445237921</v>
+        <v>366430.3390004263</v>
       </c>
     </row>
     <row r="26">
@@ -24546,28 +24546,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>272.4342898791971</v>
+        <v>296.5347494119156</v>
       </c>
       <c r="AB26" t="n">
-        <v>372.7566143653329</v>
+        <v>405.7319263352334</v>
       </c>
       <c r="AC26" t="n">
-        <v>337.1812462574989</v>
+        <v>367.0094407341331</v>
       </c>
       <c r="AD26" t="n">
-        <v>272434.2898791971</v>
+        <v>296534.7494119157</v>
       </c>
       <c r="AE26" t="n">
-        <v>372756.6143653329</v>
+        <v>405731.9263352334</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.666854580794062e-06</v>
+        <v>6.831071966211191e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.177083333333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>337181.2462574989</v>
+        <v>367009.4407341331</v>
       </c>
     </row>
     <row r="27">
@@ -24652,28 +24652,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>273.1407939339609</v>
+        <v>297.2412534666795</v>
       </c>
       <c r="AB27" t="n">
-        <v>373.72328438182</v>
+        <v>406.6985963517205</v>
       </c>
       <c r="AC27" t="n">
-        <v>338.0556586443423</v>
+        <v>367.8838531209765</v>
       </c>
       <c r="AD27" t="n">
-        <v>273140.793933961</v>
+        <v>297241.2534666795</v>
       </c>
       <c r="AE27" t="n">
-        <v>373723.28438182</v>
+        <v>406698.5963517205</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.666266378262654e-06</v>
+        <v>6.829976189508237e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4.178125000000001</v>
       </c>
       <c r="AH27" t="n">
-        <v>338055.6586443423</v>
+        <v>367883.8531209765</v>
       </c>
     </row>
   </sheetData>
@@ -24949,28 +24949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>566.2227226740147</v>
+        <v>599.5842626498928</v>
       </c>
       <c r="AB2" t="n">
-        <v>774.7309091461133</v>
+        <v>820.3776399483786</v>
       </c>
       <c r="AC2" t="n">
-        <v>700.7916785188676</v>
+        <v>742.081949398954</v>
       </c>
       <c r="AD2" t="n">
-        <v>566222.7226740146</v>
+        <v>599584.2626498928</v>
       </c>
       <c r="AE2" t="n">
-        <v>774730.9091461133</v>
+        <v>820377.6399483785</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.301024110674864e-06</v>
+        <v>4.612396743556983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.202083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>700791.6785188676</v>
+        <v>742081.9493989539</v>
       </c>
     </row>
     <row r="3">
@@ -25055,28 +25055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>330.6528041984303</v>
+        <v>352.8938606851994</v>
       </c>
       <c r="AB3" t="n">
-        <v>452.4137540764894</v>
+        <v>482.8449487678491</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.2360203541204</v>
+        <v>436.7629045345867</v>
       </c>
       <c r="AD3" t="n">
-        <v>330652.8041984303</v>
+        <v>352893.8606851994</v>
       </c>
       <c r="AE3" t="n">
-        <v>452413.7540764894</v>
+        <v>482844.9487678491</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.191589166783679e-06</v>
+        <v>6.397532042950789e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.192708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>409236.0203541204</v>
+        <v>436762.9045345867</v>
       </c>
     </row>
     <row r="4">
@@ -25161,28 +25161,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.7715579373596</v>
+        <v>311.0476675501151</v>
       </c>
       <c r="AB4" t="n">
-        <v>380.0592999861594</v>
+        <v>425.5891411966787</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.7869738120573</v>
+        <v>384.971510878978</v>
       </c>
       <c r="AD4" t="n">
-        <v>277771.5579373596</v>
+        <v>311047.6675501151</v>
       </c>
       <c r="AE4" t="n">
-        <v>380059.2999861594</v>
+        <v>425589.1411966787</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.501330175044461e-06</v>
+        <v>7.018407074733521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>343786.9738120573</v>
+        <v>384971.510878978</v>
       </c>
     </row>
     <row r="5">
@@ -25267,28 +25267,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>258.6740894289522</v>
+        <v>281.0003972617419</v>
       </c>
       <c r="AB5" t="n">
-        <v>353.9293010521079</v>
+        <v>384.4771403961169</v>
       </c>
       <c r="AC5" t="n">
-        <v>320.1507853025878</v>
+        <v>347.7831817337664</v>
       </c>
       <c r="AD5" t="n">
-        <v>258674.0894289523</v>
+        <v>281000.3972617419</v>
       </c>
       <c r="AE5" t="n">
-        <v>353929.3010521079</v>
+        <v>384477.1403961169</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.662166415081262e-06</v>
+        <v>7.340802892469702e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.524999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>320150.7853025878</v>
+        <v>347783.1817337664</v>
       </c>
     </row>
     <row r="6">
@@ -25373,28 +25373,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.8604769579543</v>
+        <v>269.0161925901549</v>
       </c>
       <c r="AB6" t="n">
-        <v>337.7653952893301</v>
+        <v>368.0798228586555</v>
       </c>
       <c r="AC6" t="n">
-        <v>305.5295400197266</v>
+        <v>332.9508011683007</v>
       </c>
       <c r="AD6" t="n">
-        <v>246860.4769579543</v>
+        <v>269016.1925901549</v>
       </c>
       <c r="AE6" t="n">
-        <v>337765.3952893301</v>
+        <v>368079.8228586555</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.761436260563916e-06</v>
+        <v>7.539789035167403e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.405208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>305529.5400197266</v>
+        <v>332950.8011683007</v>
       </c>
     </row>
     <row r="7">
@@ -25479,28 +25479,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>238.9954922117644</v>
+        <v>261.1512078439649</v>
       </c>
       <c r="AB7" t="n">
-        <v>327.00417618096</v>
+        <v>357.31860375028</v>
       </c>
       <c r="AC7" t="n">
-        <v>295.7953565595901</v>
+        <v>323.2166177081625</v>
       </c>
       <c r="AD7" t="n">
-        <v>238995.4922117644</v>
+        <v>261151.2078439649</v>
       </c>
       <c r="AE7" t="n">
-        <v>327004.17618096</v>
+        <v>357318.60375028</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.823320827699739e-06</v>
+        <v>7.663836486304273e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.334375000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>295795.3565595901</v>
+        <v>323216.6177081625</v>
       </c>
     </row>
     <row r="8">
@@ -25585,28 +25585,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>232.9092872277276</v>
+        <v>255.0650028599249</v>
       </c>
       <c r="AB8" t="n">
-        <v>318.6767620173913</v>
+        <v>348.9911895865376</v>
       </c>
       <c r="AC8" t="n">
-        <v>288.2626991161906</v>
+        <v>315.6839602647136</v>
       </c>
       <c r="AD8" t="n">
-        <v>232909.2872277276</v>
+        <v>255065.0028599249</v>
       </c>
       <c r="AE8" t="n">
-        <v>318676.7620173913</v>
+        <v>348991.1895865377</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.8667513850984e-06</v>
+        <v>7.750892923734517e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.285416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>288262.6991161905</v>
+        <v>315683.9602647136</v>
       </c>
     </row>
     <row r="9">
@@ -25691,28 +25691,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>227.2155987230682</v>
+        <v>249.3713143552655</v>
       </c>
       <c r="AB9" t="n">
-        <v>310.8864062175113</v>
+        <v>341.2008337866577</v>
       </c>
       <c r="AC9" t="n">
-        <v>281.2158439400156</v>
+        <v>308.6371050885386</v>
       </c>
       <c r="AD9" t="n">
-        <v>227215.5987230683</v>
+        <v>249371.3143552655</v>
       </c>
       <c r="AE9" t="n">
-        <v>310886.4062175113</v>
+        <v>341200.8337866577</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.901591282791831e-06</v>
+        <v>7.820729406508229e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.246875</v>
       </c>
       <c r="AH9" t="n">
-        <v>281215.8439400156</v>
+        <v>308637.1050885387</v>
       </c>
     </row>
     <row r="10">
@@ -25797,28 +25797,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>221.6681889554482</v>
+        <v>243.8239045876454</v>
       </c>
       <c r="AB10" t="n">
-        <v>303.2961954390109</v>
+        <v>333.6106230081573</v>
       </c>
       <c r="AC10" t="n">
-        <v>274.3500322252852</v>
+        <v>301.7712933738081</v>
       </c>
       <c r="AD10" t="n">
-        <v>221668.1889554482</v>
+        <v>243823.9045876454</v>
       </c>
       <c r="AE10" t="n">
-        <v>303296.1954390109</v>
+        <v>333610.6230081573</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.9353175764494e-06</v>
+        <v>7.888333672937577e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.211458333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>274350.0322252852</v>
+        <v>301771.2933738081</v>
       </c>
     </row>
     <row r="11">
@@ -25903,28 +25903,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>217.7469481329143</v>
+        <v>239.9026637651115</v>
       </c>
       <c r="AB11" t="n">
-        <v>297.9309807526868</v>
+        <v>328.2454083218332</v>
       </c>
       <c r="AC11" t="n">
-        <v>269.496866098496</v>
+        <v>296.9181272470191</v>
       </c>
       <c r="AD11" t="n">
-        <v>217746.9481329143</v>
+        <v>239902.6637651115</v>
       </c>
       <c r="AE11" t="n">
-        <v>297930.9807526868</v>
+        <v>328245.4083218332</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.954726103931585e-06</v>
+        <v>7.927238014939371e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.190625</v>
       </c>
       <c r="AH11" t="n">
-        <v>269496.866098496</v>
+        <v>296918.1272470191</v>
       </c>
     </row>
     <row r="12">
@@ -26009,28 +26009,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>216.9027930302491</v>
+        <v>239.0585086624463</v>
       </c>
       <c r="AB12" t="n">
-        <v>296.7759704997263</v>
+        <v>327.0903980688726</v>
       </c>
       <c r="AC12" t="n">
-        <v>268.4520884030106</v>
+        <v>295.8733495515336</v>
       </c>
       <c r="AD12" t="n">
-        <v>216902.7930302491</v>
+        <v>239058.5086624463</v>
       </c>
       <c r="AE12" t="n">
-        <v>296775.9704997262</v>
+        <v>327090.3980688726</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.958226002330013e-06</v>
+        <v>7.934253552021663e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.186458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>268452.0884030106</v>
+        <v>295873.3495515336</v>
       </c>
     </row>
   </sheetData>
@@ -26306,28 +26306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.6751503791241</v>
+        <v>427.5256460537196</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.3801967043737</v>
+        <v>584.9594500310544</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.7116305627858</v>
+        <v>529.1317411158343</v>
       </c>
       <c r="AD2" t="n">
-        <v>395675.1503791241</v>
+        <v>427525.6460537196</v>
       </c>
       <c r="AE2" t="n">
-        <v>541380.1967043737</v>
+        <v>584959.4500310544</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.764626347393502e-06</v>
+        <v>5.783771212720079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.243749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>489711.6305627858</v>
+        <v>529131.7411158343</v>
       </c>
     </row>
     <row r="3">
@@ -26412,28 +26412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.2414153360552</v>
+        <v>287.0918215021029</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.2325649191482</v>
+        <v>392.8116957764499</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.9022990743522</v>
+        <v>355.3222988462224</v>
       </c>
       <c r="AD3" t="n">
-        <v>255241.4153360552</v>
+        <v>287091.8215021029</v>
       </c>
       <c r="AE3" t="n">
-        <v>349232.5649191482</v>
+        <v>392811.6957764499</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.54232768697977e-06</v>
+        <v>7.410771050956327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.872916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>315902.2990743523</v>
+        <v>355322.2988462224</v>
       </c>
     </row>
     <row r="4">
@@ -26518,28 +26518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>227.7773080690055</v>
+        <v>249.1531469373209</v>
       </c>
       <c r="AB4" t="n">
-        <v>311.6549617254897</v>
+        <v>340.9023275005588</v>
       </c>
       <c r="AC4" t="n">
-        <v>281.9110495889871</v>
+        <v>308.3670878234288</v>
       </c>
       <c r="AD4" t="n">
-        <v>227777.3080690055</v>
+        <v>249153.1469373209</v>
       </c>
       <c r="AE4" t="n">
-        <v>311654.9617254896</v>
+        <v>340902.3275005589</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.804986247227849e-06</v>
+        <v>7.960269185114532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.536458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>281911.0495889871</v>
+        <v>308367.0878234288</v>
       </c>
     </row>
     <row r="5">
@@ -26624,28 +26624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.6655479003261</v>
+        <v>234.8707945680493</v>
       </c>
       <c r="AB5" t="n">
-        <v>292.346628895792</v>
+        <v>321.3605828960145</v>
       </c>
       <c r="AC5" t="n">
-        <v>264.4454769451345</v>
+        <v>290.690379896925</v>
       </c>
       <c r="AD5" t="n">
-        <v>213665.5479003261</v>
+        <v>234870.7945680493</v>
       </c>
       <c r="AE5" t="n">
-        <v>292346.6288957921</v>
+        <v>321360.5828960145</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.94186698588079e-06</v>
+        <v>8.24663225061275e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.379166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>264445.4769451345</v>
+        <v>290690.3798969251</v>
       </c>
     </row>
     <row r="6">
@@ -26730,28 +26730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>204.2853878004296</v>
+        <v>225.4906344681529</v>
       </c>
       <c r="AB6" t="n">
-        <v>279.5122800236629</v>
+        <v>308.5262340238853</v>
       </c>
       <c r="AC6" t="n">
-        <v>252.8360203162354</v>
+        <v>279.080923268026</v>
       </c>
       <c r="AD6" t="n">
-        <v>204285.3878004297</v>
+        <v>225490.6344681529</v>
       </c>
       <c r="AE6" t="n">
-        <v>279512.2800236629</v>
+        <v>308526.2340238853</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.021575987445034e-06</v>
+        <v>8.413388466720069e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.292708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>252836.0203162354</v>
+        <v>279080.923268026</v>
       </c>
     </row>
     <row r="7">
@@ -26836,28 +26836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>196.3163819359417</v>
+        <v>217.5216286036649</v>
       </c>
       <c r="AB7" t="n">
-        <v>268.6087346321495</v>
+        <v>297.6226886323719</v>
       </c>
       <c r="AC7" t="n">
-        <v>242.9730939936626</v>
+        <v>269.2179969454533</v>
       </c>
       <c r="AD7" t="n">
-        <v>196316.3819359417</v>
+        <v>217521.6286036649</v>
       </c>
       <c r="AE7" t="n">
-        <v>268608.7346321495</v>
+        <v>297622.688632372</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.080570591513372e-06</v>
+        <v>8.53680886783068e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.230208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>242973.0939936626</v>
+        <v>269217.9969454532</v>
       </c>
     </row>
     <row r="8">
@@ -26942,28 +26942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>194.4505564956017</v>
+        <v>215.655803163325</v>
       </c>
       <c r="AB8" t="n">
-        <v>266.0558299502687</v>
+        <v>295.0697839504911</v>
       </c>
       <c r="AC8" t="n">
-        <v>240.6638349515954</v>
+        <v>266.9087379033861</v>
       </c>
       <c r="AD8" t="n">
-        <v>194450.5564956017</v>
+        <v>215655.803163325</v>
       </c>
       <c r="AE8" t="n">
-        <v>266055.8299502687</v>
+        <v>295069.7839504911</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.09449066663062e-06</v>
+        <v>8.565930535508465e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.215625</v>
       </c>
       <c r="AH8" t="n">
-        <v>240663.8349515955</v>
+        <v>266908.7379033861</v>
       </c>
     </row>
   </sheetData>
@@ -50700,28 +50700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.6840293812247</v>
+        <v>327.4801849899066</v>
       </c>
       <c r="AB2" t="n">
-        <v>405.9361777750095</v>
+        <v>448.0728365093063</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.1941987031656</v>
+        <v>405.3093938670331</v>
       </c>
       <c r="AD2" t="n">
-        <v>296684.0293812247</v>
+        <v>327480.1849899066</v>
       </c>
       <c r="AE2" t="n">
-        <v>405936.1777750095</v>
+        <v>448072.8365093063</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.149586453949387e-06</v>
+        <v>6.846746685580768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.669791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>367194.1987031656</v>
+        <v>405309.3938670331</v>
       </c>
     </row>
     <row r="3">
@@ -50806,28 +50806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.68147639239</v>
+        <v>242.3922911465</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.6319347275781</v>
+        <v>331.6518263396555</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.9898693782368</v>
+        <v>299.9994415101593</v>
       </c>
       <c r="AD3" t="n">
-        <v>211681.47639239</v>
+        <v>242392.2911465</v>
       </c>
       <c r="AE3" t="n">
-        <v>289631.9347275781</v>
+        <v>331651.8263396556</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.828085511519281e-06</v>
+        <v>8.3217057767215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.664583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>261989.8693782368</v>
+        <v>299999.4415101593</v>
       </c>
     </row>
     <row r="4">
@@ -50912,28 +50912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.515370719355</v>
+        <v>210.9608897791221</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.6715351630668</v>
+        <v>288.6459963332676</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.7934097019772</v>
+        <v>261.0980275605058</v>
       </c>
       <c r="AD4" t="n">
-        <v>190515.370719355</v>
+        <v>210960.8897791221</v>
       </c>
       <c r="AE4" t="n">
-        <v>260671.5351630668</v>
+        <v>288645.9963332677</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.064651630631575e-06</v>
+        <v>8.835966399706396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.392708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>235793.4097019772</v>
+        <v>261098.0275605058</v>
       </c>
     </row>
     <row r="5">
@@ -51018,28 +51018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.7273448453247</v>
+        <v>199.1728639050918</v>
       </c>
       <c r="AB5" t="n">
-        <v>244.5426381112285</v>
+        <v>272.5170992814293</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.203831947712</v>
+        <v>246.5084498062406</v>
       </c>
       <c r="AD5" t="n">
-        <v>178727.3448453247</v>
+        <v>199172.8639050918</v>
       </c>
       <c r="AE5" t="n">
-        <v>244542.6381112284</v>
+        <v>272517.0992814293</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.179163346259844e-06</v>
+        <v>9.084898353441112e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.272916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>221203.831947712</v>
+        <v>246508.4498062406</v>
       </c>
     </row>
     <row r="6">
@@ -51124,28 +51124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>177.5893678220164</v>
+        <v>198.0348868817835</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.9856077439358</v>
+        <v>270.9600689141367</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.7954023733674</v>
+        <v>245.100020231896</v>
       </c>
       <c r="AD6" t="n">
-        <v>177589.3678220164</v>
+        <v>198034.8868817835</v>
       </c>
       <c r="AE6" t="n">
-        <v>242985.6077439358</v>
+        <v>270960.0689141367</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.193734447799369e-06</v>
+        <v>9.11657382659598e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.258333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>219795.4023733674</v>
+        <v>245100.020231896</v>
       </c>
     </row>
   </sheetData>
@@ -51421,28 +51421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.1625234795689</v>
+        <v>190.6143146481186</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.8779187302706</v>
+        <v>260.8069146114993</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.7022015743321</v>
+        <v>235.9158687258576</v>
       </c>
       <c r="AD2" t="n">
-        <v>162162.5234795689</v>
+        <v>190614.3146481186</v>
       </c>
       <c r="AE2" t="n">
-        <v>221877.9187302706</v>
+        <v>260806.9146114993</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.997020967357564e-06</v>
+        <v>9.507022144627017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.794791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>200702.2015743321</v>
+        <v>235915.8687258576</v>
       </c>
     </row>
     <row r="3">
@@ -51527,28 +51527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.0338837650327</v>
+        <v>162.973387101093</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.0735140937159</v>
+        <v>222.9873781100175</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.2650945030817</v>
+        <v>201.7057757080123</v>
       </c>
       <c r="AD3" t="n">
-        <v>144033.8837650327</v>
+        <v>162973.387101093</v>
       </c>
       <c r="AE3" t="n">
-        <v>197073.5140937159</v>
+        <v>222987.3781100175</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.292878531135458e-06</v>
+        <v>1.021072733743498e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.464583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>178265.0945030817</v>
+        <v>201705.7757080123</v>
       </c>
     </row>
   </sheetData>
@@ -51824,28 +51824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>792.5108593200007</v>
+        <v>838.5186331785945</v>
       </c>
       <c r="AB2" t="n">
-        <v>1084.348320833166</v>
+        <v>1147.298186746226</v>
       </c>
       <c r="AC2" t="n">
-        <v>980.859638985275</v>
+        <v>1037.801658046284</v>
       </c>
       <c r="AD2" t="n">
-        <v>792510.8593200007</v>
+        <v>838518.6331785945</v>
       </c>
       <c r="AE2" t="n">
-        <v>1084348.320833166</v>
+        <v>1147298.186746226</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.916755287403311e-06</v>
+        <v>3.71961351586353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.362499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>980859.6389852749</v>
+        <v>1037801.658046284</v>
       </c>
     </row>
     <row r="3">
@@ -51930,28 +51930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>398.720951255775</v>
+        <v>433.2907201592358</v>
       </c>
       <c r="AB3" t="n">
-        <v>545.5475958350588</v>
+        <v>592.8474787593409</v>
       </c>
       <c r="AC3" t="n">
-        <v>493.4812989694198</v>
+        <v>536.2669474532111</v>
       </c>
       <c r="AD3" t="n">
-        <v>398720.9512557751</v>
+        <v>433290.7201592358</v>
       </c>
       <c r="AE3" t="n">
-        <v>545547.5958350588</v>
+        <v>592847.4787593409</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.896597759120761e-06</v>
+        <v>5.621074451001923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.533333333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>493481.2989694198</v>
+        <v>536266.9474532111</v>
       </c>
     </row>
     <row r="4">
@@ -52036,28 +52036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.1970473665307</v>
+        <v>361.6814754154199</v>
       </c>
       <c r="AB4" t="n">
-        <v>447.685435121853</v>
+        <v>494.8685509239373</v>
       </c>
       <c r="AC4" t="n">
-        <v>404.9589655242771</v>
+        <v>447.6389909761294</v>
       </c>
       <c r="AD4" t="n">
-        <v>327197.0473665307</v>
+        <v>361681.4754154198</v>
       </c>
       <c r="AE4" t="n">
-        <v>447685.435121853</v>
+        <v>494868.5509239373</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.243266271805971e-06</v>
+        <v>6.29381180760789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.941666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>404958.9655242771</v>
+        <v>447638.9909761294</v>
       </c>
     </row>
     <row r="5">
@@ -52142,28 +52142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>301.7226322863856</v>
+        <v>336.2070603352747</v>
       </c>
       <c r="AB5" t="n">
-        <v>412.8302165573226</v>
+        <v>460.013332359407</v>
       </c>
       <c r="AC5" t="n">
-        <v>373.430280099939</v>
+        <v>416.1103055517913</v>
       </c>
       <c r="AD5" t="n">
-        <v>301722.6322863856</v>
+        <v>336207.0603352747</v>
       </c>
       <c r="AE5" t="n">
-        <v>412830.2165573226</v>
+        <v>460013.332359407</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.424063210290268e-06</v>
+        <v>6.64466240415117e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.681249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>373430.280099939</v>
+        <v>416110.3055517913</v>
       </c>
     </row>
     <row r="6">
@@ -52248,28 +52248,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>286.7207423961136</v>
+        <v>309.8525958529924</v>
       </c>
       <c r="AB6" t="n">
-        <v>392.3039689727805</v>
+        <v>423.9539913778329</v>
       </c>
       <c r="AC6" t="n">
-        <v>354.8630287760962</v>
+        <v>383.4924174638958</v>
       </c>
       <c r="AD6" t="n">
-        <v>286720.7423961136</v>
+        <v>309852.5958529924</v>
       </c>
       <c r="AE6" t="n">
-        <v>392303.9689727805</v>
+        <v>423953.9913778329</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.537465204897014e-06</v>
+        <v>6.864727842153211e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH6" t="n">
-        <v>354863.0287760962</v>
+        <v>383492.4174638958</v>
       </c>
     </row>
     <row r="7">
@@ -52354,28 +52354,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>276.9023020712479</v>
+        <v>299.8635633275345</v>
       </c>
       <c r="AB7" t="n">
-        <v>378.869945761283</v>
+        <v>410.2865563914884</v>
       </c>
       <c r="AC7" t="n">
-        <v>342.711129885134</v>
+        <v>371.1293832902826</v>
       </c>
       <c r="AD7" t="n">
-        <v>276902.3020712479</v>
+        <v>299863.5633275345</v>
       </c>
       <c r="AE7" t="n">
-        <v>378869.945761283</v>
+        <v>410286.5563914884</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.611014938169775e-06</v>
+        <v>7.007456850789542e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.438541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>342711.1298851341</v>
+        <v>371129.3832902826</v>
       </c>
     </row>
     <row r="8">
@@ -52460,28 +52460,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>269.5773725665932</v>
+        <v>292.5386338228798</v>
       </c>
       <c r="AB8" t="n">
-        <v>368.8476540599318</v>
+        <v>400.2642646901372</v>
       </c>
       <c r="AC8" t="n">
-        <v>333.645351637385</v>
+        <v>362.0636050425335</v>
       </c>
       <c r="AD8" t="n">
-        <v>269577.3725665932</v>
+        <v>292538.6338228798</v>
       </c>
       <c r="AE8" t="n">
-        <v>368847.6540599318</v>
+        <v>400264.2646901372</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.665023215112744e-06</v>
+        <v>7.11226413537396e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.372916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>333645.351637385</v>
+        <v>362063.6050425335</v>
       </c>
     </row>
     <row r="9">
@@ -52566,28 +52566,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>263.7764875882281</v>
+        <v>286.7377488445147</v>
       </c>
       <c r="AB9" t="n">
-        <v>360.9106273155492</v>
+        <v>392.3272379457545</v>
       </c>
       <c r="AC9" t="n">
-        <v>326.4658235857992</v>
+        <v>354.8840769909477</v>
       </c>
       <c r="AD9" t="n">
-        <v>263776.4875882281</v>
+        <v>286737.7488445147</v>
       </c>
       <c r="AE9" t="n">
-        <v>360910.6273155492</v>
+        <v>392327.2379457545</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.704106127772329e-06</v>
+        <v>7.188107583477785e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.327083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>326465.8235857992</v>
+        <v>354884.0769909477</v>
       </c>
     </row>
     <row r="10">
@@ -52672,28 +52672,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>258.3883433592472</v>
+        <v>281.3496046155337</v>
       </c>
       <c r="AB10" t="n">
-        <v>353.5383306733107</v>
+        <v>384.954941303516</v>
       </c>
       <c r="AC10" t="n">
-        <v>319.7971285880126</v>
+        <v>348.2153819931611</v>
       </c>
       <c r="AD10" t="n">
-        <v>258388.3433592472</v>
+        <v>281349.6046155337</v>
       </c>
       <c r="AE10" t="n">
-        <v>353538.3306733107</v>
+        <v>384954.941303516</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.739803906264547e-06</v>
+        <v>7.257381914029308e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.285416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>319797.1285880126</v>
+        <v>348215.3819931612</v>
       </c>
     </row>
     <row r="11">
@@ -52778,28 +52778,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>253.938990883415</v>
+        <v>276.9002521397048</v>
       </c>
       <c r="AB11" t="n">
-        <v>347.4505303241353</v>
+        <v>378.8671409545091</v>
       </c>
       <c r="AC11" t="n">
-        <v>314.2903393599855</v>
+        <v>342.708592765182</v>
       </c>
       <c r="AD11" t="n">
-        <v>253938.990883415</v>
+        <v>276900.2521397048</v>
       </c>
       <c r="AE11" t="n">
-        <v>347450.5303241353</v>
+        <v>378867.1409545091</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.765038542784908e-06</v>
+        <v>7.306351699419178e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.257291666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>314290.3393599855</v>
+        <v>342708.592765182</v>
       </c>
     </row>
     <row r="12">
@@ -52884,28 +52884,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>250.0178500339505</v>
+        <v>272.9791112902402</v>
       </c>
       <c r="AB12" t="n">
-        <v>342.0854524253752</v>
+        <v>373.5020630557462</v>
       </c>
       <c r="AC12" t="n">
-        <v>309.4372969659473</v>
+        <v>337.855550371143</v>
       </c>
       <c r="AD12" t="n">
-        <v>250017.8500339505</v>
+        <v>272979.1112902401</v>
       </c>
       <c r="AE12" t="n">
-        <v>342085.4524253752</v>
+        <v>373502.0630557463</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.785810956993742e-06</v>
+        <v>7.346662193490109e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.233333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>309437.2969659473</v>
+        <v>337855.550371143</v>
       </c>
     </row>
     <row r="13">
@@ -52990,28 +52990,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>246.7077146175637</v>
+        <v>269.6689758738533</v>
       </c>
       <c r="AB13" t="n">
-        <v>337.5563791158089</v>
+        <v>368.9729897461777</v>
       </c>
       <c r="AC13" t="n">
-        <v>305.3404720564503</v>
+        <v>333.7587254616453</v>
       </c>
       <c r="AD13" t="n">
-        <v>246707.7146175636</v>
+        <v>269668.9758738533</v>
       </c>
       <c r="AE13" t="n">
-        <v>337556.3791158089</v>
+        <v>368972.9897461777</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.800428581807366e-06</v>
+        <v>7.375028837465949e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.217708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>305340.4720564503</v>
+        <v>333758.7254616453</v>
       </c>
     </row>
     <row r="14">
@@ -53096,28 +53096,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>243.4693825703022</v>
+        <v>266.4306438265918</v>
       </c>
       <c r="AB14" t="n">
-        <v>333.125550343621</v>
+        <v>364.5421609739876</v>
       </c>
       <c r="AC14" t="n">
-        <v>301.3325153635714</v>
+        <v>329.7507687687657</v>
       </c>
       <c r="AD14" t="n">
-        <v>243469.3825703022</v>
+        <v>266430.6438265918</v>
       </c>
       <c r="AE14" t="n">
-        <v>333125.550343621</v>
+        <v>364542.1609739875</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.81489233688611e-06</v>
+        <v>7.403096885189411e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.201041666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>301332.5153635714</v>
+        <v>329750.7687687657</v>
       </c>
     </row>
     <row r="15">
@@ -53202,28 +53202,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>240.1823039351283</v>
+        <v>263.1435651914179</v>
       </c>
       <c r="AB15" t="n">
-        <v>328.6280243393037</v>
+        <v>360.0446349696679</v>
       </c>
       <c r="AC15" t="n">
-        <v>297.2642269287873</v>
+        <v>325.682480333981</v>
       </c>
       <c r="AD15" t="n">
-        <v>240182.3039351283</v>
+        <v>263143.5651914179</v>
       </c>
       <c r="AE15" t="n">
-        <v>328628.0243393037</v>
+        <v>360044.6349696679</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.829202222229974e-06</v>
+        <v>7.430866336660496e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.185416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>297264.2269287872</v>
+        <v>325682.480333981</v>
       </c>
     </row>
     <row r="16">
@@ -53308,28 +53308,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>237.5174665305166</v>
+        <v>260.4787277868061</v>
       </c>
       <c r="AB16" t="n">
-        <v>324.9818762379867</v>
+        <v>356.398486868349</v>
       </c>
       <c r="AC16" t="n">
-        <v>293.9660620848577</v>
+        <v>322.3843154900509</v>
       </c>
       <c r="AD16" t="n">
-        <v>237517.4665305166</v>
+        <v>260478.7277868061</v>
       </c>
       <c r="AE16" t="n">
-        <v>324981.8762379867</v>
+        <v>356398.486868349</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.836434099769346e-06</v>
+        <v>7.444900360522228e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.178125000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>293966.0620848577</v>
+        <v>322384.3154900509</v>
       </c>
     </row>
     <row r="17">
@@ -53414,28 +53414,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>237.2430625037328</v>
+        <v>260.2043237600224</v>
       </c>
       <c r="AB17" t="n">
-        <v>324.60642454269</v>
+        <v>356.0230351730522</v>
       </c>
       <c r="AC17" t="n">
-        <v>293.6264429724104</v>
+        <v>322.0446963776035</v>
       </c>
       <c r="AD17" t="n">
-        <v>237243.0625037328</v>
+        <v>260204.3237600224</v>
       </c>
       <c r="AE17" t="n">
-        <v>324606.42454269</v>
+        <v>356023.0351730522</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.843973716778478e-06</v>
+        <v>7.459531576888714e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.169791666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>293626.4429724104</v>
+        <v>322044.6963776036</v>
       </c>
     </row>
   </sheetData>
@@ -53711,28 +53711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1253.194729890546</v>
+        <v>1313.043632065148</v>
       </c>
       <c r="AB2" t="n">
-        <v>1714.676316485764</v>
+        <v>1796.564224788272</v>
       </c>
       <c r="AC2" t="n">
-        <v>1551.030015403687</v>
+        <v>1625.102656668205</v>
       </c>
       <c r="AD2" t="n">
-        <v>1253194.729890546</v>
+        <v>1313043.632065148</v>
       </c>
       <c r="AE2" t="n">
-        <v>1714676.316485764</v>
+        <v>1796564.224788272</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.48659284733774e-06</v>
+        <v>2.789431266794676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.38958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1551030.015403687</v>
+        <v>1625102.656668205</v>
       </c>
     </row>
     <row r="3">
@@ -53817,28 +53817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>511.7985446918103</v>
+        <v>547.673785458163</v>
       </c>
       <c r="AB3" t="n">
-        <v>700.2653478055845</v>
+        <v>749.3514349260296</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.4330058396072</v>
+        <v>677.8343856980326</v>
       </c>
       <c r="AD3" t="n">
-        <v>511798.5446918103</v>
+        <v>547673.785458163</v>
       </c>
       <c r="AE3" t="n">
-        <v>700265.3478055845</v>
+        <v>749351.4349260295</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.560688058400437e-06</v>
+        <v>4.804855174301223e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>633433.0058396072</v>
+        <v>677834.3856980327</v>
       </c>
     </row>
     <row r="4">
@@ -53923,28 +53923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.2121046017502</v>
+        <v>430.1858555185502</v>
       </c>
       <c r="AB4" t="n">
-        <v>555.7973223293832</v>
+        <v>588.5992659809943</v>
       </c>
       <c r="AC4" t="n">
-        <v>502.7528059527073</v>
+        <v>532.4241781400258</v>
       </c>
       <c r="AD4" t="n">
-        <v>406212.1046017503</v>
+        <v>430185.8555185502</v>
       </c>
       <c r="AE4" t="n">
-        <v>555797.3223293832</v>
+        <v>588599.2659809943</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.957320400972595e-06</v>
+        <v>5.549093019770579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.222916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>502752.8059527073</v>
+        <v>532424.1781400258</v>
       </c>
     </row>
     <row r="5">
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>357.9080590296577</v>
+        <v>393.7832102874595</v>
       </c>
       <c r="AB5" t="n">
-        <v>489.7055961535556</v>
+        <v>538.7915608044522</v>
       </c>
       <c r="AC5" t="n">
-        <v>442.9687813627804</v>
+        <v>487.3700504399794</v>
       </c>
       <c r="AD5" t="n">
-        <v>357908.0590296577</v>
+        <v>393783.2102874595</v>
       </c>
       <c r="AE5" t="n">
-        <v>489705.5961535556</v>
+        <v>538791.5608044522</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.160752017424558e-06</v>
+        <v>5.930810524063647e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.886458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>442968.7813627804</v>
+        <v>487370.0504399794</v>
       </c>
     </row>
     <row r="6">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>337.7384423789232</v>
+        <v>373.6135936367251</v>
       </c>
       <c r="AB6" t="n">
-        <v>462.1086368313346</v>
+        <v>511.1946014822311</v>
       </c>
       <c r="AC6" t="n">
-        <v>418.0056371056964</v>
+        <v>462.4069061828955</v>
       </c>
       <c r="AD6" t="n">
-        <v>337738.4423789232</v>
+        <v>373613.593636725</v>
       </c>
       <c r="AE6" t="n">
-        <v>462108.6368313346</v>
+        <v>511194.6014822311</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.287970914593496e-06</v>
+        <v>6.169523074124471e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.697916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>418005.6371056964</v>
+        <v>462406.9061828955</v>
       </c>
     </row>
     <row r="7">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>324.631576889708</v>
+        <v>348.6905791525286</v>
       </c>
       <c r="AB7" t="n">
-        <v>444.1752452348946</v>
+        <v>477.0938335391551</v>
       </c>
       <c r="AC7" t="n">
-        <v>401.7837832335475</v>
+        <v>431.5606676715783</v>
       </c>
       <c r="AD7" t="n">
-        <v>324631.576889708</v>
+        <v>348690.5791525286</v>
       </c>
       <c r="AE7" t="n">
-        <v>444175.2452348946</v>
+        <v>477093.8335391551</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.37515589307291e-06</v>
+        <v>6.333116290250072e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.576041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>401783.7832335475</v>
+        <v>431560.6676715783</v>
       </c>
     </row>
     <row r="8">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>316.2630097675153</v>
+        <v>340.3220120303358</v>
       </c>
       <c r="AB8" t="n">
-        <v>432.7250025031855</v>
+        <v>465.6435908074461</v>
       </c>
       <c r="AC8" t="n">
-        <v>391.4263355976362</v>
+        <v>421.203220035667</v>
       </c>
       <c r="AD8" t="n">
-        <v>316263.0097675152</v>
+        <v>340322.0120303358</v>
       </c>
       <c r="AE8" t="n">
-        <v>432725.0025031855</v>
+        <v>465643.590807446</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.430758557919473e-06</v>
+        <v>6.43744869849344e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.502083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>391426.3355976362</v>
+        <v>421203.2200356669</v>
       </c>
     </row>
     <row r="9">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>308.2707355051942</v>
+        <v>332.1591455674226</v>
       </c>
       <c r="AB9" t="n">
-        <v>421.7896202632223</v>
+        <v>454.4747967926358</v>
       </c>
       <c r="AC9" t="n">
-        <v>381.5346108907497</v>
+        <v>411.1003600461293</v>
       </c>
       <c r="AD9" t="n">
-        <v>308270.7355051942</v>
+        <v>332159.1455674226</v>
       </c>
       <c r="AE9" t="n">
-        <v>421789.6202632223</v>
+        <v>454474.7967926358</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.485471580128493e-06</v>
+        <v>6.540111788204913e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.431249999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>381534.6108907497</v>
+        <v>411100.3600461293</v>
       </c>
     </row>
     <row r="10">
@@ -54559,28 +54559,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>303.3108190034624</v>
+        <v>327.1992290656908</v>
       </c>
       <c r="AB10" t="n">
-        <v>415.0032436894802</v>
+        <v>447.6884202188937</v>
       </c>
       <c r="AC10" t="n">
-        <v>375.3959165724661</v>
+        <v>404.9616657278457</v>
       </c>
       <c r="AD10" t="n">
-        <v>303310.8190034624</v>
+        <v>327199.2290656908</v>
       </c>
       <c r="AE10" t="n">
-        <v>415003.2436894802</v>
+        <v>447688.4202188937</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.517202167534265e-06</v>
+        <v>6.599650815842462e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.391666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>375395.9165724661</v>
+        <v>404961.6657278457</v>
       </c>
     </row>
     <row r="11">
@@ -54665,28 +54665,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>298.6841462938212</v>
+        <v>322.5725563560496</v>
       </c>
       <c r="AB11" t="n">
-        <v>408.6728259737546</v>
+        <v>441.3580025031682</v>
       </c>
       <c r="AC11" t="n">
-        <v>369.6696650387325</v>
+        <v>399.2354141941121</v>
       </c>
       <c r="AD11" t="n">
-        <v>298684.1462938212</v>
+        <v>322572.5563560496</v>
       </c>
       <c r="AE11" t="n">
-        <v>408672.8259737546</v>
+        <v>441358.0025031682</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.545819005708631e-06</v>
+        <v>6.653347228618382e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.35625</v>
       </c>
       <c r="AH11" t="n">
-        <v>369669.6650387325</v>
+        <v>399235.4141941121</v>
       </c>
     </row>
     <row r="12">
@@ -54771,28 +54771,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>294.280868497456</v>
+        <v>318.1692785596844</v>
       </c>
       <c r="AB12" t="n">
-        <v>402.6480670338615</v>
+        <v>435.333243563275</v>
       </c>
       <c r="AC12" t="n">
-        <v>364.2199006362604</v>
+        <v>393.78564979164</v>
       </c>
       <c r="AD12" t="n">
-        <v>294280.868497456</v>
+        <v>318169.2785596843</v>
       </c>
       <c r="AE12" t="n">
-        <v>402648.0670338615</v>
+        <v>435333.243563275</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.574139296337147e-06</v>
+        <v>6.70648720188367e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.320833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>364219.9006362604</v>
+        <v>393785.64979164</v>
       </c>
     </row>
     <row r="13">
@@ -54877,28 +54877,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>290.138278301235</v>
+        <v>314.0266883634634</v>
       </c>
       <c r="AB13" t="n">
-        <v>396.979992369211</v>
+        <v>429.6651688986244</v>
       </c>
       <c r="AC13" t="n">
-        <v>359.0927790624113</v>
+        <v>388.658528217791</v>
       </c>
       <c r="AD13" t="n">
-        <v>290138.278301235</v>
+        <v>314026.6883634634</v>
       </c>
       <c r="AE13" t="n">
-        <v>396979.992369211</v>
+        <v>429665.1688986244</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.597270004913318e-06</v>
+        <v>6.749889483712911e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.29375</v>
       </c>
       <c r="AH13" t="n">
-        <v>359092.7790624113</v>
+        <v>388658.528217791</v>
       </c>
     </row>
     <row r="14">
@@ -54983,28 +54983,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>287.7841861144408</v>
+        <v>311.6725961766692</v>
       </c>
       <c r="AB14" t="n">
-        <v>393.7590195840216</v>
+        <v>426.4441961134351</v>
       </c>
       <c r="AC14" t="n">
-        <v>356.1792113991767</v>
+        <v>385.7449605545564</v>
       </c>
       <c r="AD14" t="n">
-        <v>287784.1861144408</v>
+        <v>311672.5961766692</v>
       </c>
       <c r="AE14" t="n">
-        <v>393759.0195840216</v>
+        <v>426444.1961134351</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.608390537882631e-06</v>
+        <v>6.770755965361586e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.280208333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>356179.2113991767</v>
+        <v>385744.9605545565</v>
       </c>
     </row>
     <row r="15">
@@ -55089,28 +55089,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>284.3709632460956</v>
+        <v>308.2593733083241</v>
       </c>
       <c r="AB15" t="n">
-        <v>389.0888974747863</v>
+        <v>421.7740740041998</v>
       </c>
       <c r="AC15" t="n">
-        <v>351.9547991894893</v>
+        <v>381.5205483448689</v>
       </c>
       <c r="AD15" t="n">
-        <v>284370.9632460956</v>
+        <v>308259.3733083241</v>
       </c>
       <c r="AE15" t="n">
-        <v>389088.8974747863</v>
+        <v>421774.0740041998</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.623069641402123e-06</v>
+        <v>6.798299721137833e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.263541666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>351954.7991894893</v>
+        <v>381520.5483448689</v>
       </c>
     </row>
     <row r="16">
@@ -55195,28 +55195,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>281.6948246528902</v>
+        <v>305.5832347151186</v>
       </c>
       <c r="AB16" t="n">
-        <v>385.4272865886603</v>
+        <v>418.1124631180739</v>
       </c>
       <c r="AC16" t="n">
-        <v>348.642647307232</v>
+        <v>378.2083964626117</v>
       </c>
       <c r="AD16" t="n">
-        <v>281694.8246528902</v>
+        <v>305583.2347151186</v>
       </c>
       <c r="AE16" t="n">
-        <v>385427.2865886603</v>
+        <v>418112.4631180739</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.637897018694541e-06</v>
+        <v>6.826121696669399e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.245833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>348642.647307232</v>
+        <v>378208.3964626117</v>
       </c>
     </row>
     <row r="17">
@@ -55301,28 +55301,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>278.9434778034962</v>
+        <v>302.8318878657246</v>
       </c>
       <c r="AB17" t="n">
-        <v>381.6627724484631</v>
+        <v>414.3479489778766</v>
       </c>
       <c r="AC17" t="n">
-        <v>345.2374131130464</v>
+        <v>374.803162268426</v>
       </c>
       <c r="AD17" t="n">
-        <v>278943.4778034962</v>
+        <v>302831.8878657246</v>
       </c>
       <c r="AE17" t="n">
-        <v>381662.7724484631</v>
+        <v>414347.9489778766</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.649907194301398e-06</v>
+        <v>6.848657496849966e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.23125</v>
       </c>
       <c r="AH17" t="n">
-        <v>345237.4131130464</v>
+        <v>374803.162268426</v>
       </c>
     </row>
     <row r="18">
@@ -55407,28 +55407,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>276.5872997493099</v>
+        <v>300.4757098115383</v>
       </c>
       <c r="AB18" t="n">
-        <v>378.4389456874858</v>
+        <v>411.1241222168994</v>
       </c>
       <c r="AC18" t="n">
-        <v>342.3212638534675</v>
+        <v>371.8870130088472</v>
       </c>
       <c r="AD18" t="n">
-        <v>276587.2997493099</v>
+        <v>300475.7098115383</v>
       </c>
       <c r="AE18" t="n">
-        <v>378438.9456874859</v>
+        <v>411124.1222168994</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.659989810860242e-06</v>
+        <v>6.86757644021143e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.219791666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>342321.2638534675</v>
+        <v>371887.0130088473</v>
       </c>
     </row>
     <row r="19">
@@ -55513,28 +55513,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>273.9639163796782</v>
+        <v>297.8523264419065</v>
       </c>
       <c r="AB19" t="n">
-        <v>374.8495168256497</v>
+        <v>407.5346933550633</v>
       </c>
       <c r="AC19" t="n">
-        <v>339.07440504441</v>
+        <v>368.6401541997896</v>
       </c>
       <c r="AD19" t="n">
-        <v>273963.9163796782</v>
+        <v>297852.3264419066</v>
       </c>
       <c r="AE19" t="n">
-        <v>374849.5168256497</v>
+        <v>407534.6933550633</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.666958678187678e-06</v>
+        <v>6.880652768711265e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.212499999999999</v>
       </c>
       <c r="AH19" t="n">
-        <v>339074.40504441</v>
+        <v>368640.1541997896</v>
       </c>
     </row>
     <row r="20">
@@ -55619,28 +55619,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>271.0323640370063</v>
+        <v>294.9207740992347</v>
       </c>
       <c r="AB20" t="n">
-        <v>370.8384375794443</v>
+        <v>403.5236141088578</v>
       </c>
       <c r="AC20" t="n">
-        <v>335.4461375718774</v>
+        <v>365.011886727257</v>
       </c>
       <c r="AD20" t="n">
-        <v>271032.3640370063</v>
+        <v>294920.7740992347</v>
       </c>
       <c r="AE20" t="n">
-        <v>370838.4375794443</v>
+        <v>403523.6141088578</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.67555855701728e-06</v>
+        <v>6.896789514519572e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.202083333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>335446.1375718775</v>
+        <v>365011.886727257</v>
       </c>
     </row>
     <row r="21">
@@ -55725,28 +55725,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>268.5610185331407</v>
+        <v>292.4494285953691</v>
       </c>
       <c r="AB21" t="n">
-        <v>367.4570336329867</v>
+        <v>400.1422101624001</v>
       </c>
       <c r="AC21" t="n">
-        <v>332.3874500722394</v>
+        <v>361.9531992276191</v>
       </c>
       <c r="AD21" t="n">
-        <v>268561.0185331407</v>
+        <v>292449.4285953691</v>
       </c>
       <c r="AE21" t="n">
-        <v>367457.0336329867</v>
+        <v>400142.2101624002</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.683417066982261e-06</v>
+        <v>6.911535161551302e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>332387.4500722394</v>
+        <v>361953.1992276191</v>
       </c>
     </row>
     <row r="22">
@@ -55831,28 +55831,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>267.0750344239323</v>
+        <v>290.9634444861607</v>
       </c>
       <c r="AB22" t="n">
-        <v>365.4238446177756</v>
+        <v>398.1090211471891</v>
       </c>
       <c r="AC22" t="n">
-        <v>330.5483057630414</v>
+        <v>360.1140549184211</v>
       </c>
       <c r="AD22" t="n">
-        <v>267075.0344239323</v>
+        <v>290963.4444861607</v>
       </c>
       <c r="AE22" t="n">
-        <v>365423.8446177756</v>
+        <v>398109.0211471891</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.688754922807531e-06</v>
+        <v>6.921551072742665e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.1875</v>
       </c>
       <c r="AH22" t="n">
-        <v>330548.3057630414</v>
+        <v>360114.0549184211</v>
       </c>
     </row>
     <row r="23">
@@ -55937,28 +55937,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>265.4303405732566</v>
+        <v>289.3187506354849</v>
       </c>
       <c r="AB23" t="n">
-        <v>363.1735019325093</v>
+        <v>395.8586784619228</v>
       </c>
       <c r="AC23" t="n">
-        <v>328.5127326252811</v>
+        <v>358.0784817806608</v>
       </c>
       <c r="AD23" t="n">
-        <v>265430.3405732565</v>
+        <v>289318.7506354849</v>
       </c>
       <c r="AE23" t="n">
-        <v>363173.5019325093</v>
+        <v>395858.6784619228</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.697354801637133e-06</v>
+        <v>6.937687818550972e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.177083333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>328512.7326252811</v>
+        <v>358078.4817806608</v>
       </c>
     </row>
     <row r="24">
@@ -56043,28 +56043,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>265.087761835797</v>
+        <v>288.9761718980254</v>
       </c>
       <c r="AB24" t="n">
-        <v>362.7047705904099</v>
+        <v>395.3899471198234</v>
       </c>
       <c r="AC24" t="n">
-        <v>328.0887363446031</v>
+        <v>357.6544854999829</v>
       </c>
       <c r="AD24" t="n">
-        <v>265087.761835797</v>
+        <v>288976.1718980254</v>
       </c>
       <c r="AE24" t="n">
-        <v>362704.7705904099</v>
+        <v>395389.9471198234</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.696316885226665e-06</v>
+        <v>6.935740280263763e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.178125000000001</v>
       </c>
       <c r="AH24" t="n">
-        <v>328088.7363446031</v>
+        <v>357654.4854999828</v>
       </c>
     </row>
     <row r="25">
@@ -56149,28 +56149,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>266.1494797599358</v>
+        <v>290.0378898221642</v>
       </c>
       <c r="AB25" t="n">
-        <v>364.1574598939057</v>
+        <v>396.8426364233192</v>
       </c>
       <c r="AC25" t="n">
-        <v>329.4027830198355</v>
+        <v>358.9685321752152</v>
       </c>
       <c r="AD25" t="n">
-        <v>266149.4797599359</v>
+        <v>290037.8898221642</v>
       </c>
       <c r="AE25" t="n">
-        <v>364157.4598939057</v>
+        <v>396842.6364233192</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.695278968816195e-06</v>
+        <v>6.933792741976554e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.179166666666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>329402.7830198355</v>
+        <v>358968.5321752152</v>
       </c>
     </row>
   </sheetData>
@@ -56446,28 +56446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.5571495129071</v>
+        <v>153.9523875480353</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.1610752708703</v>
+        <v>210.6444485431178</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.6348252801621</v>
+        <v>190.5408380155631</v>
       </c>
       <c r="AD2" t="n">
-        <v>126557.1495129071</v>
+        <v>153952.3875480353</v>
       </c>
       <c r="AE2" t="n">
-        <v>173161.0752708703</v>
+        <v>210644.4485431178</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.229994134318391e-06</v>
+        <v>1.057889431765649e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.691666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>156634.8252801622</v>
+        <v>190540.8380155631</v>
       </c>
     </row>
   </sheetData>
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.2795840274931</v>
+        <v>475.8067658050935</v>
       </c>
       <c r="AB2" t="n">
-        <v>606.5146829814629</v>
+        <v>651.0198080875588</v>
       </c>
       <c r="AC2" t="n">
-        <v>548.6297728864153</v>
+        <v>588.8873913157207</v>
       </c>
       <c r="AD2" t="n">
-        <v>443279.5840274931</v>
+        <v>475806.7658050935</v>
       </c>
       <c r="AE2" t="n">
-        <v>606514.6829814629</v>
+        <v>651019.8080875587</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.602508030658429e-06</v>
+        <v>5.35930173715719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>548629.7728864152</v>
+        <v>588887.3913157207</v>
       </c>
     </row>
     <row r="3">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.5465378892743</v>
+        <v>308.9030379577314</v>
       </c>
       <c r="AB3" t="n">
-        <v>378.3831735122989</v>
+        <v>422.6547643739993</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.2708144964037</v>
+        <v>382.3171868618315</v>
       </c>
       <c r="AD3" t="n">
-        <v>276546.5378892743</v>
+        <v>308903.0379577315</v>
       </c>
       <c r="AE3" t="n">
-        <v>378383.1735122988</v>
+        <v>422654.7643739993</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.417373756515589e-06</v>
+        <v>7.037341247003107e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.978124999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>342270.8144964037</v>
+        <v>382317.1868618315</v>
       </c>
     </row>
     <row r="4">
@@ -56955,28 +56955,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>244.8963296918664</v>
+        <v>266.609564495127</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.0779623478083</v>
+        <v>364.7869681261001</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.098591906307</v>
+        <v>329.9722118698697</v>
       </c>
       <c r="AD4" t="n">
-        <v>244896.3296918664</v>
+        <v>266609.5644951269</v>
       </c>
       <c r="AE4" t="n">
-        <v>335077.9623478083</v>
+        <v>364786.9681261001</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.695146622183531e-06</v>
+        <v>7.609354314387457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.603124999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>303098.591906307</v>
+        <v>329972.2118698697</v>
       </c>
     </row>
     <row r="5">
@@ -57061,28 +57061,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>229.4709572192616</v>
+        <v>251.0135998219266</v>
       </c>
       <c r="AB5" t="n">
-        <v>313.9722872113961</v>
+        <v>343.4478812146637</v>
       </c>
       <c r="AC5" t="n">
-        <v>284.0072127829062</v>
+        <v>310.6696974637674</v>
       </c>
       <c r="AD5" t="n">
-        <v>229470.9572192616</v>
+        <v>251013.5998219266</v>
       </c>
       <c r="AE5" t="n">
-        <v>313972.2872113961</v>
+        <v>343447.8812146637</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.839013697229655e-06</v>
+        <v>7.905617402197929e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.431249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>284007.2127829062</v>
+        <v>310669.6974637674</v>
       </c>
     </row>
     <row r="6">
@@ -57167,28 +57167,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>219.360790849108</v>
+        <v>240.903433451773</v>
       </c>
       <c r="AB6" t="n">
-        <v>300.1391115546978</v>
+        <v>329.6147055579654</v>
       </c>
       <c r="AC6" t="n">
-        <v>271.4942559958948</v>
+        <v>298.1567406767559</v>
       </c>
       <c r="AD6" t="n">
-        <v>219360.790849108</v>
+        <v>240903.433451773</v>
       </c>
       <c r="AE6" t="n">
-        <v>300139.1115546978</v>
+        <v>329614.7055579654</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.927358859091122e-06</v>
+        <v>8.087545132624109e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.33125</v>
       </c>
       <c r="AH6" t="n">
-        <v>271494.2559958948</v>
+        <v>298156.740676756</v>
       </c>
     </row>
     <row r="7">
@@ -57273,28 +57273,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>211.6905157346102</v>
+        <v>233.2331583372752</v>
       </c>
       <c r="AB7" t="n">
-        <v>289.6443027543913</v>
+        <v>319.119896757659</v>
       </c>
       <c r="AC7" t="n">
-        <v>262.0010570179297</v>
+        <v>288.6635416987908</v>
       </c>
       <c r="AD7" t="n">
-        <v>211690.5157346102</v>
+        <v>233233.1583372752</v>
       </c>
       <c r="AE7" t="n">
-        <v>289644.3027543913</v>
+        <v>319119.896757659</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.985166968701029e-06</v>
+        <v>8.20658841648893e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.26875</v>
       </c>
       <c r="AH7" t="n">
-        <v>262001.0570179296</v>
+        <v>288663.5416987908</v>
       </c>
     </row>
     <row r="8">
@@ -57379,28 +57379,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>205.0926676247697</v>
+        <v>226.6353102274346</v>
       </c>
       <c r="AB8" t="n">
-        <v>280.6168358939967</v>
+        <v>310.0924298972643</v>
       </c>
       <c r="AC8" t="n">
-        <v>253.8351589245588</v>
+        <v>280.49764360542</v>
       </c>
       <c r="AD8" t="n">
-        <v>205092.6676247697</v>
+        <v>226635.3102274346</v>
       </c>
       <c r="AE8" t="n">
-        <v>280616.8358939966</v>
+        <v>310092.4298972642</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.030564297716719e-06</v>
+        <v>8.300074385173732e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.220833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>253835.1589245588</v>
+        <v>280497.64360542</v>
       </c>
     </row>
     <row r="9">
@@ -57485,28 +57485,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>201.8006814332089</v>
+        <v>223.3433240358739</v>
       </c>
       <c r="AB9" t="n">
-        <v>276.1125951545247</v>
+        <v>305.5881891577923</v>
       </c>
       <c r="AC9" t="n">
-        <v>249.760796599519</v>
+        <v>276.4232812803801</v>
       </c>
       <c r="AD9" t="n">
-        <v>201800.6814332089</v>
+        <v>223343.3240358739</v>
       </c>
       <c r="AE9" t="n">
-        <v>276112.5951545247</v>
+        <v>305588.1891577923</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.050650166309992e-06</v>
+        <v>8.341436882109814e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.198958333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>249760.796599519</v>
+        <v>276423.2812803801</v>
       </c>
     </row>
     <row r="10">
@@ -57591,28 +57591,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>202.8063293836616</v>
+        <v>224.3489719863266</v>
       </c>
       <c r="AB10" t="n">
-        <v>277.4885670463897</v>
+        <v>306.9641610496573</v>
       </c>
       <c r="AC10" t="n">
-        <v>251.0054476652136</v>
+        <v>277.6679323460747</v>
       </c>
       <c r="AD10" t="n">
-        <v>202806.3293836616</v>
+        <v>224348.9719863266</v>
       </c>
       <c r="AE10" t="n">
-        <v>277488.5670463897</v>
+        <v>306964.1610496573</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.04836396988474e-06</v>
+        <v>8.336728955629284e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.202083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>251005.4476652136</v>
+        <v>277667.9323460747</v>
       </c>
     </row>
   </sheetData>
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>630.8980457678464</v>
+        <v>675.9432750829405</v>
       </c>
       <c r="AB2" t="n">
-        <v>863.2225394769747</v>
+        <v>924.8554094811506</v>
       </c>
       <c r="AC2" t="n">
-        <v>780.837791849735</v>
+        <v>836.5885072429886</v>
       </c>
       <c r="AD2" t="n">
-        <v>630898.0457678464</v>
+        <v>675943.2750829406</v>
       </c>
       <c r="AE2" t="n">
-        <v>863222.5394769748</v>
+        <v>924855.4094811506</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.164484246323515e-06</v>
+        <v>4.288241799020376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.566666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>780837.7918497351</v>
+        <v>836588.5072429886</v>
       </c>
     </row>
     <row r="3">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.0349552470903</v>
+        <v>386.6482850328188</v>
       </c>
       <c r="AB3" t="n">
-        <v>483.038000572081</v>
+        <v>529.029241300366</v>
       </c>
       <c r="AC3" t="n">
-        <v>436.9375317455726</v>
+        <v>478.5394330078618</v>
       </c>
       <c r="AD3" t="n">
-        <v>353034.9552470903</v>
+        <v>386648.2850328188</v>
       </c>
       <c r="AE3" t="n">
-        <v>483038.000572081</v>
+        <v>529029.241300366</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.087223989308386e-06</v>
+        <v>6.116359117132571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.305208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>436937.5317455726</v>
+        <v>478539.4330078618</v>
       </c>
     </row>
     <row r="4">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.2273065282818</v>
+        <v>327.9258876600309</v>
       </c>
       <c r="AB4" t="n">
-        <v>402.5747811846502</v>
+        <v>448.6826665655843</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.1536090856404</v>
+        <v>405.8610225986418</v>
       </c>
       <c r="AD4" t="n">
-        <v>294227.3065282818</v>
+        <v>327925.8876600309</v>
       </c>
       <c r="AE4" t="n">
-        <v>402574.7811846502</v>
+        <v>448682.6665655843</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.410945429213966e-06</v>
+        <v>6.757710890516965e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.801041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>364153.6090856404</v>
+        <v>405861.0225986418</v>
       </c>
     </row>
     <row r="5">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>273.5743177614387</v>
+        <v>296.1822732735574</v>
       </c>
       <c r="AB5" t="n">
-        <v>374.3164508082965</v>
+        <v>405.249652932582</v>
       </c>
       <c r="AC5" t="n">
-        <v>338.5922140995901</v>
+        <v>366.5731948281557</v>
       </c>
       <c r="AD5" t="n">
-        <v>273574.3177614387</v>
+        <v>296182.2732735574</v>
       </c>
       <c r="AE5" t="n">
-        <v>374316.4508082964</v>
+        <v>405249.652932582</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.57382809640298e-06</v>
+        <v>7.08041144283665e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.582291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>338592.2140995901</v>
+        <v>366573.1948281557</v>
       </c>
     </row>
     <row r="6">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>260.8990469736239</v>
+        <v>283.3364102851504</v>
       </c>
       <c r="AB6" t="n">
-        <v>356.9735861229269</v>
+        <v>387.6733764723655</v>
       </c>
       <c r="AC6" t="n">
-        <v>322.9045280789288</v>
+        <v>350.6743735248433</v>
       </c>
       <c r="AD6" t="n">
-        <v>260899.0469736238</v>
+        <v>283336.4102851503</v>
       </c>
       <c r="AE6" t="n">
-        <v>356973.5861229268</v>
+        <v>387673.3764723655</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.677909491846154e-06</v>
+        <v>7.286615849820851e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>322904.5280789288</v>
+        <v>350674.3735248433</v>
       </c>
     </row>
     <row r="7">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>252.0496955893355</v>
+        <v>274.4870589008652</v>
       </c>
       <c r="AB7" t="n">
-        <v>344.8655131529512</v>
+        <v>375.5653035025568</v>
       </c>
       <c r="AC7" t="n">
-        <v>311.952032599524</v>
+        <v>339.7218780454861</v>
       </c>
       <c r="AD7" t="n">
-        <v>252049.6955893355</v>
+        <v>274487.0589008652</v>
       </c>
       <c r="AE7" t="n">
-        <v>344865.5131529512</v>
+        <v>375565.3035025569</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.748502462471508e-06</v>
+        <v>7.426473521627355e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.368749999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>311952.032599524</v>
+        <v>339721.8780454861</v>
       </c>
     </row>
     <row r="8">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>244.8153012264363</v>
+        <v>267.2526645379659</v>
       </c>
       <c r="AB8" t="n">
-        <v>334.9670956266833</v>
+        <v>365.6668859762839</v>
       </c>
       <c r="AC8" t="n">
-        <v>302.9983061494437</v>
+        <v>330.7681515954044</v>
       </c>
       <c r="AD8" t="n">
-        <v>244815.3012264363</v>
+        <v>267252.6645379659</v>
       </c>
       <c r="AE8" t="n">
-        <v>334967.0956266833</v>
+        <v>365666.8859762839</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.801329273451729e-06</v>
+        <v>7.531133160217524e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.308333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>302998.3061494437</v>
+        <v>330768.1515954044</v>
       </c>
     </row>
     <row r="9">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>239.7906894593062</v>
+        <v>262.2280527708357</v>
       </c>
       <c r="AB9" t="n">
-        <v>328.0922001366728</v>
+        <v>358.7919904862699</v>
       </c>
       <c r="AC9" t="n">
-        <v>296.7795410360213</v>
+        <v>324.5493864819809</v>
       </c>
       <c r="AD9" t="n">
-        <v>239790.6894593062</v>
+        <v>262228.0527708357</v>
       </c>
       <c r="AE9" t="n">
-        <v>328092.2001366728</v>
+        <v>358791.9904862699</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.832773803797099e-06</v>
+        <v>7.593430564140244e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.272916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>296779.5410360213</v>
+        <v>324549.3864819809</v>
       </c>
     </row>
     <row r="10">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>234.6032243468228</v>
+        <v>257.0405876583491</v>
       </c>
       <c r="AB10" t="n">
-        <v>320.9944815149676</v>
+        <v>351.6942718643904</v>
       </c>
       <c r="AC10" t="n">
-        <v>290.3592187178587</v>
+        <v>318.1290641637687</v>
       </c>
       <c r="AD10" t="n">
-        <v>234603.2243468228</v>
+        <v>257040.5876583491</v>
       </c>
       <c r="AE10" t="n">
-        <v>320994.4815149676</v>
+        <v>351694.2718643904</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.864532779445922e-06</v>
+        <v>7.656350942102191e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.2375</v>
       </c>
       <c r="AH10" t="n">
-        <v>290359.2187178587</v>
+        <v>318129.0641637687</v>
       </c>
     </row>
     <row r="11">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>230.4227700451457</v>
+        <v>252.860133356672</v>
       </c>
       <c r="AB11" t="n">
-        <v>315.2745995107884</v>
+        <v>345.9743898602111</v>
       </c>
       <c r="AC11" t="n">
-        <v>285.1852342242518</v>
+        <v>312.9550796701618</v>
       </c>
       <c r="AD11" t="n">
-        <v>230422.7700451457</v>
+        <v>252860.133356672</v>
       </c>
       <c r="AE11" t="n">
-        <v>315274.5995107885</v>
+        <v>345974.3898602112</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.885600614777319e-06</v>
+        <v>7.698090202730412e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.214583333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>285185.2342242518</v>
+        <v>312955.0796701618</v>
       </c>
     </row>
     <row r="12">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>225.9740671296171</v>
+        <v>248.4114304411433</v>
       </c>
       <c r="AB12" t="n">
-        <v>309.1876879188441</v>
+        <v>339.8874782682669</v>
       </c>
       <c r="AC12" t="n">
-        <v>279.6792489316065</v>
+        <v>307.4490943775166</v>
       </c>
       <c r="AD12" t="n">
-        <v>225974.0671296171</v>
+        <v>248411.4304411433</v>
       </c>
       <c r="AE12" t="n">
-        <v>309187.6879188441</v>
+        <v>339887.4782682669</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.909184012536347e-06</v>
+        <v>7.744813255672451e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.189583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>279679.2489316065</v>
+        <v>307449.0943775166</v>
       </c>
     </row>
     <row r="13">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>224.0008559279289</v>
+        <v>246.4382192394552</v>
       </c>
       <c r="AB13" t="n">
-        <v>306.4878533007613</v>
+        <v>337.1876436501842</v>
       </c>
       <c r="AC13" t="n">
-        <v>277.2370827402311</v>
+        <v>305.0069281861411</v>
       </c>
       <c r="AD13" t="n">
-        <v>224000.8559279289</v>
+        <v>246438.2192394552</v>
       </c>
       <c r="AE13" t="n">
-        <v>306487.8533007613</v>
+        <v>337187.6436501842</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.911699574963976e-06</v>
+        <v>7.749797047986268e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.186458333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>277237.0827402311</v>
+        <v>305006.9281861411</v>
       </c>
     </row>
     <row r="14">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>224.4251152214509</v>
+        <v>246.8624785329772</v>
       </c>
       <c r="AB14" t="n">
-        <v>307.0683435831568</v>
+        <v>337.7681339325796</v>
       </c>
       <c r="AC14" t="n">
-        <v>277.7621718447982</v>
+        <v>305.5320172907082</v>
       </c>
       <c r="AD14" t="n">
-        <v>224425.1152214509</v>
+        <v>246862.4785329772</v>
       </c>
       <c r="AE14" t="n">
-        <v>307068.3435831568</v>
+        <v>337768.1339325797</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.916573477167508e-06</v>
+        <v>7.759453145594288e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.181249999999999</v>
       </c>
       <c r="AH14" t="n">
-        <v>277762.1718447982</v>
+        <v>305532.0172907082</v>
       </c>
     </row>
   </sheetData>
